--- a/docs/EAC_to_Ric-O_0.2_documentation.xlsx
+++ b/docs/EAC_to_Ric-O_0.2_documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shared\ArchivesNationalesFr\rico-converter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669FE2D7-44D8-4929-A33A-EA8489D1FC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1737E2-9D25-4574-949F-F90373DC082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,11 +261,6 @@
     <t>/eac-cpf/cpfDescription/identity/nameEntry[not(@localType)]</t>
   </si>
   <si>
-    <t>This is an acronym, a non-normalized form.
-This is the way the ANF encode a non-normalized form of the agent name (e.g. an acronym). Besides, only one 
-nameEntry/part is used, for encoding the whole name.</t>
-  </si>
-  <si>
     <t>useDates/dateRange/fromDate and toDate</t>
   </si>
   <si>
@@ -994,6 +989,11 @@
   </si>
   <si>
     <t>/eac-cpf/cpfDescription/description//legalStatus/term[@vocabularySource]</t>
+  </si>
+  <si>
+    <t>This is an acronym, or a non-normalized form.
+This is the way the ANF encode a non-normalized form of the agent name (e.g. an acronym). Besides, only one 
+nameEntry/part is used, for encoding the whole name.</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1184,9 +1184,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1224,7 +1221,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,33 +1443,33 @@
   </sheetPr>
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="24" customWidth="1"/>
     <col min="5" max="5" width="61" style="12" customWidth="1"/>
-    <col min="6" max="6" width="63.26953125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="63.26953125" style="24" customWidth="1"/>
     <col min="7" max="7" width="88.453125" style="12" customWidth="1"/>
     <col min="8" max="8" width="41.7265625" style="12" customWidth="1"/>
     <col min="9" max="9" width="26.54296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="9"/>
       <c r="I1" s="15"/>
       <c r="J1" s="1"/>
@@ -1489,7 +1486,7 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1513,12 +1510,12 @@
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5"/>
@@ -1528,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7"/>
@@ -1555,7 +1552,7 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1596,7 +1593,7 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1637,7 +1634,7 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1676,7 +1673,7 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1715,7 +1712,7 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1727,7 +1724,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>29</v>
@@ -1756,7 +1753,7 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -1764,17 +1761,17 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="3"/>
@@ -1797,7 +1794,7 @@
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1805,17 +1802,17 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="3"/>
@@ -1838,7 +1835,7 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1875,7 +1872,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1912,7 +1909,7 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1926,7 +1923,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="7"/>
@@ -1953,7 +1950,7 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1996,7 +1993,7 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2012,7 +2009,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="7" t="s">
@@ -2041,7 +2038,7 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="237.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2054,15 +2051,15 @@
       <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>239</v>
+      <c r="F16" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="28" t="s">
-        <v>240</v>
+      <c r="I16" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2084,7 +2081,7 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2097,8 +2094,8 @@
       <c r="E17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>241</v>
+      <c r="F17" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="7"/>
@@ -2125,7 +2122,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -2137,7 +2134,7 @@
       <c r="D18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="18" t="s">
@@ -2147,7 +2144,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>69</v>
       </c>
       <c r="J18" s="3"/>
@@ -2170,7 +2167,7 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2208,7 +2205,7 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="225" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2220,17 +2217,17 @@
       <c r="D20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>242</v>
+      <c r="F20" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="2"/>
@@ -2253,7 +2250,7 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2265,17 +2262,17 @@
       <c r="D21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>243</v>
+      <c r="F21" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>69</v>
       </c>
       <c r="J21" s="2"/>
@@ -2298,7 +2295,7 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2308,19 +2305,19 @@
         <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="F22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>69</v>
       </c>
       <c r="J22" s="2"/>
@@ -2343,7 +2340,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2353,10 +2350,10 @@
         <v>64</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>23</v>
@@ -2384,18 +2381,18 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>23</v>
@@ -2427,26 +2424,26 @@
         <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2468,30 +2465,30 @@
       <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>244</v>
+      <c r="F26" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2513,30 +2510,30 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="175" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>245</v>
+      <c r="F27" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2558,30 +2555,30 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="F28" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2603,28 +2600,28 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="7"/>
       <c r="I29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2646,27 +2643,27 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="2"/>
@@ -2689,28 +2686,28 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="7"/>
       <c r="I31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2732,27 +2729,27 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="2"/>
@@ -2775,30 +2772,30 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>247</v>
+        <v>261</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2820,30 +2817,30 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="F34" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2865,28 +2862,28 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2908,28 +2905,28 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2951,30 +2948,30 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="1:27" ht="225" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>250</v>
+      <c r="F37" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2996,28 +2993,28 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="F38" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="7"/>
       <c r="I38" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3039,28 +3036,28 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="7"/>
       <c r="I39" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -3082,30 +3079,30 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="1:27" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>251</v>
+      <c r="F40" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -3127,28 +3124,28 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3170,28 +3167,28 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -3213,28 +3210,28 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -3256,29 +3253,29 @@
       <c r="AA43" s="2"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="2"/>
@@ -3301,25 +3298,25 @@
       <c r="AA44" s="2"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="2"/>
@@ -3342,20 +3339,20 @@
       <c r="AA45" s="2"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>23</v>
@@ -3383,30 +3380,30 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>252</v>
+      <c r="F47" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3428,27 +3425,27 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D48" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="2"/>
@@ -3471,30 +3468,30 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="1:27" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D49" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -3516,30 +3513,30 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="1:27" ht="212.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -3561,27 +3558,27 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D51" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="2"/>
@@ -3604,28 +3601,28 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" spans="1:27" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D52" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="F52" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3647,28 +3644,28 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="1:27" ht="200" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D53" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="7"/>
       <c r="I53" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -3690,30 +3687,30 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54" spans="1:27" ht="200" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D54" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -3735,30 +3732,30 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" spans="1:27" ht="375" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="F55" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -3780,26 +3777,26 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" spans="1:27" ht="25" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D56" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="6"/>
@@ -3823,20 +3820,20 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D57" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>23</v>
@@ -3864,27 +3861,27 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D58" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="2"/>
@@ -3907,23 +3904,23 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D59" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="7"/>
@@ -3948,27 +3945,27 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D60" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="2"/>
@@ -3991,27 +3988,27 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D61" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="2"/>
@@ -4034,23 +4031,23 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="7"/>
@@ -4075,32 +4072,32 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" spans="1:27" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="I63" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -4122,25 +4119,25 @@
       <c r="AA63" s="2"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F64" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="2"/>
@@ -4163,23 +4160,23 @@
       <c r="AA64" s="2"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="2"/>
@@ -4202,21 +4199,21 @@
       <c r="AA65" s="2"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>229</v>
+      <c r="A66" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="2"/>
@@ -4244,7 +4241,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="25"/>
+      <c r="I67" s="24"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D68" s="15"/>
@@ -4252,7 +4249,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="25"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D69" s="15"/>
@@ -4260,7 +4257,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="25"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D70" s="15"/>
@@ -4268,7 +4265,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="25"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D71" s="15"/>
@@ -4276,7 +4273,7 @@
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="25"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D72" s="15"/>
@@ -4284,7 +4281,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="25"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D73" s="15"/>
@@ -4292,7 +4289,7 @@
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="25"/>
+      <c r="I73" s="24"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D74" s="15"/>
@@ -4300,7 +4297,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="25"/>
+      <c r="I74" s="24"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D75" s="15"/>
@@ -4308,7 +4305,7 @@
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="25"/>
+      <c r="I75" s="24"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D76" s="15"/>
@@ -4316,7 +4313,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="25"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D77" s="15"/>
@@ -4324,7 +4321,7 @@
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="25"/>
+      <c r="I77" s="24"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D78" s="15"/>
@@ -4332,7 +4329,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="25"/>
+      <c r="I78" s="24"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D79" s="15"/>
@@ -4340,7 +4337,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="25"/>
+      <c r="I79" s="24"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D80" s="15"/>
@@ -4348,7 +4345,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="25"/>
+      <c r="I80" s="24"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81" s="15"/>
@@ -4356,7 +4353,7 @@
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="25"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D82" s="15"/>
@@ -4364,7 +4361,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="25"/>
+      <c r="I82" s="24"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="15"/>
@@ -4372,7 +4369,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="25"/>
+      <c r="I83" s="24"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="15"/>
@@ -4380,7 +4377,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="25"/>
+      <c r="I84" s="24"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="15"/>
@@ -4388,7 +4385,7 @@
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="25"/>
+      <c r="I85" s="24"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="15"/>
@@ -4396,7 +4393,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="25"/>
+      <c r="I86" s="24"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87" s="15"/>
@@ -4404,7 +4401,7 @@
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="25"/>
+      <c r="I87" s="24"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88" s="15"/>
@@ -4412,7 +4409,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="25"/>
+      <c r="I88" s="24"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D89" s="15"/>
@@ -4420,7 +4417,7 @@
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="25"/>
+      <c r="I89" s="24"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D90" s="15"/>
@@ -4428,7 +4425,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="25"/>
+      <c r="I90" s="24"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D91" s="15"/>
@@ -4436,7 +4433,7 @@
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="25"/>
+      <c r="I91" s="24"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D92" s="15"/>
@@ -4444,7 +4441,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="25"/>
+      <c r="I92" s="24"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D93" s="15"/>
@@ -4452,7 +4449,7 @@
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="25"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D94" s="15"/>
@@ -4460,7 +4457,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="25"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D95" s="15"/>
@@ -4468,7 +4465,7 @@
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="25"/>
+      <c r="I95" s="24"/>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D96" s="15"/>
@@ -4476,7 +4473,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="25"/>
+      <c r="I96" s="24"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="15"/>
@@ -4484,7 +4481,7 @@
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="25"/>
+      <c r="I97" s="24"/>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D98" s="15"/>
@@ -4492,7 +4489,7 @@
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="25"/>
+      <c r="I98" s="24"/>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D99" s="15"/>
@@ -4500,7 +4497,7 @@
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="25"/>
+      <c r="I99" s="24"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D100" s="15"/>
@@ -4508,7 +4505,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="25"/>
+      <c r="I100" s="24"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D101" s="15"/>
@@ -4516,7 +4513,7 @@
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="25"/>
+      <c r="I101" s="24"/>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D102" s="15"/>
@@ -4524,7 +4521,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="25"/>
+      <c r="I102" s="24"/>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D103" s="15"/>
@@ -4532,7 +4529,7 @@
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="25"/>
+      <c r="I103" s="24"/>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D104" s="15"/>
@@ -4540,7 +4537,7 @@
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="25"/>
+      <c r="I104" s="24"/>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D105" s="15"/>
@@ -4548,7 +4545,7 @@
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
       <c r="H105" s="9"/>
-      <c r="I105" s="25"/>
+      <c r="I105" s="24"/>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D106" s="15"/>
@@ -4556,7 +4553,7 @@
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
       <c r="H106" s="9"/>
-      <c r="I106" s="25"/>
+      <c r="I106" s="24"/>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D107" s="15"/>
@@ -4564,7 +4561,7 @@
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
       <c r="H107" s="9"/>
-      <c r="I107" s="25"/>
+      <c r="I107" s="24"/>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D108" s="15"/>
@@ -4572,7 +4569,7 @@
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
       <c r="H108" s="9"/>
-      <c r="I108" s="25"/>
+      <c r="I108" s="24"/>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D109" s="15"/>
@@ -4580,7 +4577,7 @@
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
       <c r="H109" s="9"/>
-      <c r="I109" s="25"/>
+      <c r="I109" s="24"/>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D110" s="15"/>
@@ -4588,7 +4585,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="25"/>
+      <c r="I110" s="24"/>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D111" s="15"/>
@@ -4596,7 +4593,7 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="25"/>
+      <c r="I111" s="24"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D112" s="15"/>
@@ -4604,7 +4601,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="25"/>
+      <c r="I112" s="24"/>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D113" s="15"/>
@@ -4612,7 +4609,7 @@
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="25"/>
+      <c r="I113" s="24"/>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D114" s="15"/>
@@ -4620,7 +4617,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="25"/>
+      <c r="I114" s="24"/>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D115" s="15"/>
@@ -4628,7 +4625,7 @@
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="25"/>
+      <c r="I115" s="24"/>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D116" s="15"/>
@@ -4636,7 +4633,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="25"/>
+      <c r="I116" s="24"/>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D117" s="15"/>
@@ -4644,7 +4641,7 @@
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="25"/>
+      <c r="I117" s="24"/>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D118" s="15"/>
@@ -4652,7 +4649,7 @@
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="25"/>
+      <c r="I118" s="24"/>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D119" s="15"/>
@@ -4660,7 +4657,7 @@
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="25"/>
+      <c r="I119" s="24"/>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D120" s="15"/>
@@ -4668,7 +4665,7 @@
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="25"/>
+      <c r="I120" s="24"/>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D121" s="15"/>
@@ -4676,7 +4673,7 @@
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="25"/>
+      <c r="I121" s="24"/>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D122" s="15"/>
@@ -4684,7 +4681,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="25"/>
+      <c r="I122" s="24"/>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D123" s="15"/>
@@ -4692,7 +4689,7 @@
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="25"/>
+      <c r="I123" s="24"/>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D124" s="15"/>
@@ -4700,7 +4697,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="25"/>
+      <c r="I124" s="24"/>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D125" s="15"/>
@@ -4708,7 +4705,7 @@
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="25"/>
+      <c r="I125" s="24"/>
     </row>
     <row r="126" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D126" s="15"/>
@@ -4716,7 +4713,7 @@
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="25"/>
+      <c r="I126" s="24"/>
     </row>
     <row r="127" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D127" s="15"/>
@@ -4724,7 +4721,7 @@
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="25"/>
+      <c r="I127" s="24"/>
     </row>
     <row r="128" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D128" s="15"/>
@@ -4732,7 +4729,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="25"/>
+      <c r="I128" s="24"/>
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D129" s="15"/>
@@ -4740,7 +4737,7 @@
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="25"/>
+      <c r="I129" s="24"/>
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D130" s="15"/>
@@ -4748,7 +4745,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="25"/>
+      <c r="I130" s="24"/>
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D131" s="15"/>
@@ -4756,7 +4753,7 @@
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="25"/>
+      <c r="I131" s="24"/>
     </row>
     <row r="132" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D132" s="15"/>
@@ -4764,7 +4761,7 @@
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="25"/>
+      <c r="I132" s="24"/>
     </row>
     <row r="133" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D133" s="15"/>
@@ -4772,7 +4769,7 @@
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="25"/>
+      <c r="I133" s="24"/>
     </row>
     <row r="134" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D134" s="15"/>
@@ -4780,7 +4777,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="25"/>
+      <c r="I134" s="24"/>
     </row>
     <row r="135" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D135" s="15"/>
@@ -4788,7 +4785,7 @@
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="25"/>
+      <c r="I135" s="24"/>
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D136" s="15"/>
@@ -4796,7 +4793,7 @@
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="25"/>
+      <c r="I136" s="24"/>
     </row>
     <row r="137" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D137" s="15"/>
@@ -4804,7 +4801,7 @@
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="25"/>
+      <c r="I137" s="24"/>
     </row>
     <row r="138" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D138" s="15"/>
@@ -4812,7 +4809,7 @@
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="25"/>
+      <c r="I138" s="24"/>
     </row>
     <row r="139" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D139" s="15"/>
@@ -4820,7 +4817,7 @@
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="25"/>
+      <c r="I139" s="24"/>
     </row>
     <row r="140" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D140" s="15"/>
@@ -4828,7 +4825,7 @@
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="25"/>
+      <c r="I140" s="24"/>
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D141" s="15"/>
@@ -4836,7 +4833,7 @@
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="25"/>
+      <c r="I141" s="24"/>
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D142" s="15"/>
@@ -4844,7 +4841,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="25"/>
+      <c r="I142" s="24"/>
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D143" s="15"/>
@@ -4852,7 +4849,7 @@
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="25"/>
+      <c r="I143" s="24"/>
     </row>
     <row r="144" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D144" s="15"/>
@@ -4860,7 +4857,7 @@
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="25"/>
+      <c r="I144" s="24"/>
     </row>
     <row r="145" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D145" s="15"/>
@@ -4868,7 +4865,7 @@
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="25"/>
+      <c r="I145" s="24"/>
     </row>
     <row r="146" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D146" s="15"/>
@@ -4876,7 +4873,7 @@
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="25"/>
+      <c r="I146" s="24"/>
     </row>
     <row r="147" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D147" s="15"/>
@@ -4884,7 +4881,7 @@
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="25"/>
+      <c r="I147" s="24"/>
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D148" s="15"/>
@@ -4892,7 +4889,7 @@
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="25"/>
+      <c r="I148" s="24"/>
     </row>
     <row r="149" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D149" s="15"/>
@@ -4900,7 +4897,7 @@
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="25"/>
+      <c r="I149" s="24"/>
     </row>
     <row r="150" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D150" s="15"/>
@@ -4908,7 +4905,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="9"/>
-      <c r="I150" s="25"/>
+      <c r="I150" s="24"/>
     </row>
     <row r="151" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D151" s="15"/>
@@ -4916,7 +4913,7 @@
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
       <c r="H151" s="9"/>
-      <c r="I151" s="25"/>
+      <c r="I151" s="24"/>
     </row>
     <row r="152" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D152" s="15"/>
@@ -4924,7 +4921,7 @@
       <c r="F152" s="15"/>
       <c r="G152" s="15"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="25"/>
+      <c r="I152" s="24"/>
     </row>
     <row r="153" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D153" s="15"/>
@@ -4932,7 +4929,7 @@
       <c r="F153" s="15"/>
       <c r="G153" s="15"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="25"/>
+      <c r="I153" s="24"/>
     </row>
     <row r="154" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D154" s="15"/>
@@ -4940,7 +4937,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="15"/>
       <c r="H154" s="9"/>
-      <c r="I154" s="25"/>
+      <c r="I154" s="24"/>
     </row>
     <row r="155" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D155" s="15"/>
@@ -4948,7 +4945,7 @@
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="25"/>
+      <c r="I155" s="24"/>
     </row>
     <row r="156" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D156" s="15"/>
@@ -4956,7 +4953,7 @@
       <c r="F156" s="15"/>
       <c r="G156" s="15"/>
       <c r="H156" s="9"/>
-      <c r="I156" s="25"/>
+      <c r="I156" s="24"/>
     </row>
     <row r="157" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D157" s="15"/>
@@ -4964,7 +4961,7 @@
       <c r="F157" s="15"/>
       <c r="G157" s="15"/>
       <c r="H157" s="9"/>
-      <c r="I157" s="25"/>
+      <c r="I157" s="24"/>
     </row>
     <row r="158" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D158" s="15"/>
@@ -4972,7 +4969,7 @@
       <c r="F158" s="15"/>
       <c r="G158" s="15"/>
       <c r="H158" s="9"/>
-      <c r="I158" s="25"/>
+      <c r="I158" s="24"/>
     </row>
     <row r="159" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D159" s="15"/>
@@ -4980,7 +4977,7 @@
       <c r="F159" s="15"/>
       <c r="G159" s="15"/>
       <c r="H159" s="9"/>
-      <c r="I159" s="25"/>
+      <c r="I159" s="24"/>
     </row>
     <row r="160" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D160" s="15"/>
@@ -4988,7 +4985,7 @@
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="9"/>
-      <c r="I160" s="25"/>
+      <c r="I160" s="24"/>
     </row>
     <row r="161" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D161" s="15"/>
@@ -4996,7 +4993,7 @@
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="9"/>
-      <c r="I161" s="25"/>
+      <c r="I161" s="24"/>
     </row>
     <row r="162" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D162" s="15"/>
@@ -5004,7 +5001,7 @@
       <c r="F162" s="15"/>
       <c r="G162" s="15"/>
       <c r="H162" s="9"/>
-      <c r="I162" s="25"/>
+      <c r="I162" s="24"/>
     </row>
     <row r="163" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D163" s="15"/>
@@ -5012,7 +5009,7 @@
       <c r="F163" s="15"/>
       <c r="G163" s="15"/>
       <c r="H163" s="9"/>
-      <c r="I163" s="25"/>
+      <c r="I163" s="24"/>
     </row>
     <row r="164" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D164" s="15"/>
@@ -5020,7 +5017,7 @@
       <c r="F164" s="15"/>
       <c r="G164" s="15"/>
       <c r="H164" s="9"/>
-      <c r="I164" s="25"/>
+      <c r="I164" s="24"/>
     </row>
     <row r="165" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D165" s="15"/>
@@ -5028,7 +5025,7 @@
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="9"/>
-      <c r="I165" s="25"/>
+      <c r="I165" s="24"/>
     </row>
     <row r="166" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D166" s="15"/>
@@ -5036,7 +5033,7 @@
       <c r="F166" s="15"/>
       <c r="G166" s="15"/>
       <c r="H166" s="9"/>
-      <c r="I166" s="25"/>
+      <c r="I166" s="24"/>
     </row>
     <row r="167" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D167" s="15"/>
@@ -5044,7 +5041,7 @@
       <c r="F167" s="15"/>
       <c r="G167" s="15"/>
       <c r="H167" s="9"/>
-      <c r="I167" s="25"/>
+      <c r="I167" s="24"/>
     </row>
     <row r="168" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D168" s="15"/>
@@ -5052,7 +5049,7 @@
       <c r="F168" s="15"/>
       <c r="G168" s="15"/>
       <c r="H168" s="9"/>
-      <c r="I168" s="25"/>
+      <c r="I168" s="24"/>
     </row>
     <row r="169" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D169" s="15"/>
@@ -5060,7 +5057,7 @@
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="9"/>
-      <c r="I169" s="25"/>
+      <c r="I169" s="24"/>
     </row>
     <row r="170" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D170" s="15"/>
@@ -5068,7 +5065,7 @@
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="9"/>
-      <c r="I170" s="25"/>
+      <c r="I170" s="24"/>
     </row>
     <row r="171" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D171" s="15"/>
@@ -5076,7 +5073,7 @@
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
       <c r="H171" s="9"/>
-      <c r="I171" s="25"/>
+      <c r="I171" s="24"/>
     </row>
     <row r="172" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D172" s="15"/>
@@ -5084,7 +5081,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="15"/>
       <c r="H172" s="9"/>
-      <c r="I172" s="25"/>
+      <c r="I172" s="24"/>
     </row>
     <row r="173" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D173" s="15"/>
@@ -5092,7 +5089,7 @@
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="9"/>
-      <c r="I173" s="25"/>
+      <c r="I173" s="24"/>
     </row>
     <row r="174" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D174" s="15"/>
@@ -5100,7 +5097,7 @@
       <c r="F174" s="15"/>
       <c r="G174" s="15"/>
       <c r="H174" s="9"/>
-      <c r="I174" s="25"/>
+      <c r="I174" s="24"/>
     </row>
     <row r="175" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D175" s="15"/>
@@ -5108,7 +5105,7 @@
       <c r="F175" s="15"/>
       <c r="G175" s="15"/>
       <c r="H175" s="9"/>
-      <c r="I175" s="25"/>
+      <c r="I175" s="24"/>
     </row>
     <row r="176" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D176" s="15"/>
@@ -5116,7 +5113,7 @@
       <c r="F176" s="15"/>
       <c r="G176" s="15"/>
       <c r="H176" s="9"/>
-      <c r="I176" s="25"/>
+      <c r="I176" s="24"/>
     </row>
     <row r="177" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D177" s="15"/>
@@ -5124,7 +5121,7 @@
       <c r="F177" s="15"/>
       <c r="G177" s="15"/>
       <c r="H177" s="9"/>
-      <c r="I177" s="25"/>
+      <c r="I177" s="24"/>
     </row>
     <row r="178" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D178" s="15"/>
@@ -5132,7 +5129,7 @@
       <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="9"/>
-      <c r="I178" s="25"/>
+      <c r="I178" s="24"/>
     </row>
     <row r="179" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D179" s="15"/>
@@ -5140,7 +5137,7 @@
       <c r="F179" s="15"/>
       <c r="G179" s="15"/>
       <c r="H179" s="9"/>
-      <c r="I179" s="25"/>
+      <c r="I179" s="24"/>
     </row>
     <row r="180" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D180" s="15"/>
@@ -5148,7 +5145,7 @@
       <c r="F180" s="15"/>
       <c r="G180" s="15"/>
       <c r="H180" s="9"/>
-      <c r="I180" s="25"/>
+      <c r="I180" s="24"/>
     </row>
     <row r="181" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D181" s="15"/>
@@ -5156,7 +5153,7 @@
       <c r="F181" s="15"/>
       <c r="G181" s="15"/>
       <c r="H181" s="9"/>
-      <c r="I181" s="25"/>
+      <c r="I181" s="24"/>
     </row>
     <row r="182" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D182" s="15"/>
@@ -5164,7 +5161,7 @@
       <c r="F182" s="15"/>
       <c r="G182" s="15"/>
       <c r="H182" s="9"/>
-      <c r="I182" s="25"/>
+      <c r="I182" s="24"/>
     </row>
     <row r="183" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D183" s="15"/>
@@ -5172,7 +5169,7 @@
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="9"/>
-      <c r="I183" s="25"/>
+      <c r="I183" s="24"/>
     </row>
     <row r="184" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D184" s="15"/>
@@ -5180,7 +5177,7 @@
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="9"/>
-      <c r="I184" s="25"/>
+      <c r="I184" s="24"/>
     </row>
     <row r="185" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D185" s="15"/>
@@ -5188,7 +5185,7 @@
       <c r="F185" s="15"/>
       <c r="G185" s="15"/>
       <c r="H185" s="9"/>
-      <c r="I185" s="25"/>
+      <c r="I185" s="24"/>
     </row>
     <row r="186" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D186" s="15"/>
@@ -5196,7 +5193,7 @@
       <c r="F186" s="15"/>
       <c r="G186" s="15"/>
       <c r="H186" s="9"/>
-      <c r="I186" s="25"/>
+      <c r="I186" s="24"/>
     </row>
     <row r="187" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D187" s="15"/>
@@ -5204,7 +5201,7 @@
       <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="9"/>
-      <c r="I187" s="25"/>
+      <c r="I187" s="24"/>
     </row>
     <row r="188" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D188" s="15"/>
@@ -5212,7 +5209,7 @@
       <c r="F188" s="15"/>
       <c r="G188" s="15"/>
       <c r="H188" s="9"/>
-      <c r="I188" s="25"/>
+      <c r="I188" s="24"/>
     </row>
     <row r="189" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D189" s="15"/>
@@ -5220,7 +5217,7 @@
       <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="9"/>
-      <c r="I189" s="25"/>
+      <c r="I189" s="24"/>
     </row>
     <row r="190" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D190" s="15"/>
@@ -5228,7 +5225,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="9"/>
-      <c r="I190" s="25"/>
+      <c r="I190" s="24"/>
     </row>
     <row r="191" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D191" s="15"/>
@@ -5236,7 +5233,7 @@
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="9"/>
-      <c r="I191" s="25"/>
+      <c r="I191" s="24"/>
     </row>
     <row r="192" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D192" s="15"/>
@@ -5244,7 +5241,7 @@
       <c r="F192" s="15"/>
       <c r="G192" s="15"/>
       <c r="H192" s="9"/>
-      <c r="I192" s="25"/>
+      <c r="I192" s="24"/>
     </row>
     <row r="193" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D193" s="15"/>
@@ -5252,7 +5249,7 @@
       <c r="F193" s="15"/>
       <c r="G193" s="15"/>
       <c r="H193" s="9"/>
-      <c r="I193" s="25"/>
+      <c r="I193" s="24"/>
     </row>
     <row r="194" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D194" s="15"/>
@@ -5260,7 +5257,7 @@
       <c r="F194" s="15"/>
       <c r="G194" s="15"/>
       <c r="H194" s="9"/>
-      <c r="I194" s="25"/>
+      <c r="I194" s="24"/>
     </row>
     <row r="195" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D195" s="15"/>
@@ -5268,7 +5265,7 @@
       <c r="F195" s="15"/>
       <c r="G195" s="15"/>
       <c r="H195" s="9"/>
-      <c r="I195" s="25"/>
+      <c r="I195" s="24"/>
     </row>
     <row r="196" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D196" s="15"/>
@@ -5276,7 +5273,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="15"/>
       <c r="H196" s="9"/>
-      <c r="I196" s="25"/>
+      <c r="I196" s="24"/>
     </row>
     <row r="197" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D197" s="15"/>
@@ -5284,7 +5281,7 @@
       <c r="F197" s="15"/>
       <c r="G197" s="15"/>
       <c r="H197" s="9"/>
-      <c r="I197" s="25"/>
+      <c r="I197" s="24"/>
     </row>
     <row r="198" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D198" s="15"/>
@@ -5292,7 +5289,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="15"/>
       <c r="H198" s="9"/>
-      <c r="I198" s="25"/>
+      <c r="I198" s="24"/>
     </row>
     <row r="199" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D199" s="15"/>
@@ -5300,7 +5297,7 @@
       <c r="F199" s="15"/>
       <c r="G199" s="15"/>
       <c r="H199" s="9"/>
-      <c r="I199" s="25"/>
+      <c r="I199" s="24"/>
     </row>
     <row r="200" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D200" s="15"/>
@@ -5308,7 +5305,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="15"/>
       <c r="H200" s="9"/>
-      <c r="I200" s="25"/>
+      <c r="I200" s="24"/>
     </row>
     <row r="201" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D201" s="15"/>
@@ -5316,7 +5313,7 @@
       <c r="F201" s="15"/>
       <c r="G201" s="15"/>
       <c r="H201" s="9"/>
-      <c r="I201" s="25"/>
+      <c r="I201" s="24"/>
     </row>
     <row r="202" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D202" s="15"/>
@@ -5324,7 +5321,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="15"/>
       <c r="H202" s="9"/>
-      <c r="I202" s="25"/>
+      <c r="I202" s="24"/>
     </row>
     <row r="203" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D203" s="15"/>
@@ -5332,7 +5329,7 @@
       <c r="F203" s="15"/>
       <c r="G203" s="15"/>
       <c r="H203" s="9"/>
-      <c r="I203" s="25"/>
+      <c r="I203" s="24"/>
     </row>
     <row r="204" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D204" s="15"/>
@@ -5340,7 +5337,7 @@
       <c r="F204" s="15"/>
       <c r="G204" s="15"/>
       <c r="H204" s="9"/>
-      <c r="I204" s="25"/>
+      <c r="I204" s="24"/>
     </row>
     <row r="205" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D205" s="15"/>
@@ -5348,7 +5345,7 @@
       <c r="F205" s="15"/>
       <c r="G205" s="15"/>
       <c r="H205" s="9"/>
-      <c r="I205" s="25"/>
+      <c r="I205" s="24"/>
     </row>
     <row r="206" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D206" s="15"/>
@@ -5356,7 +5353,7 @@
       <c r="F206" s="15"/>
       <c r="G206" s="15"/>
       <c r="H206" s="9"/>
-      <c r="I206" s="25"/>
+      <c r="I206" s="24"/>
     </row>
     <row r="207" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D207" s="15"/>
@@ -5364,7 +5361,7 @@
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
       <c r="H207" s="9"/>
-      <c r="I207" s="25"/>
+      <c r="I207" s="24"/>
     </row>
     <row r="208" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D208" s="15"/>
@@ -5372,7 +5369,7 @@
       <c r="F208" s="15"/>
       <c r="G208" s="15"/>
       <c r="H208" s="9"/>
-      <c r="I208" s="25"/>
+      <c r="I208" s="24"/>
     </row>
     <row r="209" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D209" s="15"/>
@@ -5380,7 +5377,7 @@
       <c r="F209" s="15"/>
       <c r="G209" s="15"/>
       <c r="H209" s="9"/>
-      <c r="I209" s="25"/>
+      <c r="I209" s="24"/>
     </row>
     <row r="210" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D210" s="15"/>
@@ -5388,7 +5385,7 @@
       <c r="F210" s="15"/>
       <c r="G210" s="15"/>
       <c r="H210" s="9"/>
-      <c r="I210" s="25"/>
+      <c r="I210" s="24"/>
     </row>
     <row r="211" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D211" s="15"/>
@@ -5396,7 +5393,7 @@
       <c r="F211" s="15"/>
       <c r="G211" s="15"/>
       <c r="H211" s="9"/>
-      <c r="I211" s="25"/>
+      <c r="I211" s="24"/>
     </row>
     <row r="212" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D212" s="15"/>
@@ -5404,7 +5401,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="15"/>
       <c r="H212" s="9"/>
-      <c r="I212" s="25"/>
+      <c r="I212" s="24"/>
     </row>
     <row r="213" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D213" s="15"/>
@@ -5412,7 +5409,7 @@
       <c r="F213" s="15"/>
       <c r="G213" s="15"/>
       <c r="H213" s="9"/>
-      <c r="I213" s="25"/>
+      <c r="I213" s="24"/>
     </row>
     <row r="214" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D214" s="15"/>
@@ -5420,7 +5417,7 @@
       <c r="F214" s="15"/>
       <c r="G214" s="15"/>
       <c r="H214" s="9"/>
-      <c r="I214" s="25"/>
+      <c r="I214" s="24"/>
     </row>
     <row r="215" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D215" s="15"/>
@@ -5428,7 +5425,7 @@
       <c r="F215" s="15"/>
       <c r="G215" s="15"/>
       <c r="H215" s="9"/>
-      <c r="I215" s="25"/>
+      <c r="I215" s="24"/>
     </row>
     <row r="216" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D216" s="15"/>
@@ -5436,7 +5433,7 @@
       <c r="F216" s="15"/>
       <c r="G216" s="15"/>
       <c r="H216" s="9"/>
-      <c r="I216" s="25"/>
+      <c r="I216" s="24"/>
     </row>
     <row r="217" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D217" s="15"/>
@@ -5444,7 +5441,7 @@
       <c r="F217" s="15"/>
       <c r="G217" s="15"/>
       <c r="H217" s="9"/>
-      <c r="I217" s="25"/>
+      <c r="I217" s="24"/>
     </row>
     <row r="218" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D218" s="15"/>
@@ -5452,7 +5449,7 @@
       <c r="F218" s="15"/>
       <c r="G218" s="15"/>
       <c r="H218" s="9"/>
-      <c r="I218" s="25"/>
+      <c r="I218" s="24"/>
     </row>
     <row r="219" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D219" s="15"/>
@@ -5460,7 +5457,7 @@
       <c r="F219" s="15"/>
       <c r="G219" s="15"/>
       <c r="H219" s="9"/>
-      <c r="I219" s="25"/>
+      <c r="I219" s="24"/>
     </row>
     <row r="220" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D220" s="15"/>
@@ -5468,7 +5465,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="15"/>
       <c r="H220" s="9"/>
-      <c r="I220" s="25"/>
+      <c r="I220" s="24"/>
     </row>
     <row r="221" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D221" s="15"/>
@@ -5476,7 +5473,7 @@
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
       <c r="H221" s="9"/>
-      <c r="I221" s="25"/>
+      <c r="I221" s="24"/>
     </row>
     <row r="222" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D222" s="15"/>
@@ -5484,7 +5481,7 @@
       <c r="F222" s="15"/>
       <c r="G222" s="15"/>
       <c r="H222" s="9"/>
-      <c r="I222" s="25"/>
+      <c r="I222" s="24"/>
     </row>
     <row r="223" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D223" s="15"/>
@@ -5492,7 +5489,7 @@
       <c r="F223" s="15"/>
       <c r="G223" s="15"/>
       <c r="H223" s="9"/>
-      <c r="I223" s="25"/>
+      <c r="I223" s="24"/>
     </row>
     <row r="224" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D224" s="15"/>
@@ -5500,7 +5497,7 @@
       <c r="F224" s="15"/>
       <c r="G224" s="15"/>
       <c r="H224" s="9"/>
-      <c r="I224" s="25"/>
+      <c r="I224" s="24"/>
     </row>
     <row r="225" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D225" s="15"/>
@@ -5508,7 +5505,7 @@
       <c r="F225" s="15"/>
       <c r="G225" s="15"/>
       <c r="H225" s="9"/>
-      <c r="I225" s="25"/>
+      <c r="I225" s="24"/>
     </row>
     <row r="226" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D226" s="15"/>
@@ -5516,7 +5513,7 @@
       <c r="F226" s="15"/>
       <c r="G226" s="15"/>
       <c r="H226" s="9"/>
-      <c r="I226" s="25"/>
+      <c r="I226" s="24"/>
     </row>
     <row r="227" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D227" s="15"/>
@@ -5524,7 +5521,7 @@
       <c r="F227" s="15"/>
       <c r="G227" s="15"/>
       <c r="H227" s="9"/>
-      <c r="I227" s="25"/>
+      <c r="I227" s="24"/>
     </row>
     <row r="228" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D228" s="15"/>
@@ -5532,7 +5529,7 @@
       <c r="F228" s="15"/>
       <c r="G228" s="15"/>
       <c r="H228" s="9"/>
-      <c r="I228" s="25"/>
+      <c r="I228" s="24"/>
     </row>
     <row r="229" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D229" s="15"/>
@@ -5540,7 +5537,7 @@
       <c r="F229" s="15"/>
       <c r="G229" s="15"/>
       <c r="H229" s="9"/>
-      <c r="I229" s="25"/>
+      <c r="I229" s="24"/>
     </row>
     <row r="230" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D230" s="15"/>
@@ -5548,7 +5545,7 @@
       <c r="F230" s="15"/>
       <c r="G230" s="15"/>
       <c r="H230" s="9"/>
-      <c r="I230" s="25"/>
+      <c r="I230" s="24"/>
     </row>
     <row r="231" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D231" s="15"/>
@@ -5556,7 +5553,7 @@
       <c r="F231" s="15"/>
       <c r="G231" s="15"/>
       <c r="H231" s="9"/>
-      <c r="I231" s="25"/>
+      <c r="I231" s="24"/>
     </row>
     <row r="232" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D232" s="15"/>
@@ -5564,7 +5561,7 @@
       <c r="F232" s="15"/>
       <c r="G232" s="15"/>
       <c r="H232" s="9"/>
-      <c r="I232" s="25"/>
+      <c r="I232" s="24"/>
     </row>
     <row r="233" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D233" s="15"/>
@@ -5572,7 +5569,7 @@
       <c r="F233" s="15"/>
       <c r="G233" s="15"/>
       <c r="H233" s="9"/>
-      <c r="I233" s="25"/>
+      <c r="I233" s="24"/>
     </row>
     <row r="234" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D234" s="15"/>
@@ -5580,7 +5577,7 @@
       <c r="F234" s="15"/>
       <c r="G234" s="15"/>
       <c r="H234" s="9"/>
-      <c r="I234" s="25"/>
+      <c r="I234" s="24"/>
     </row>
     <row r="235" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D235" s="15"/>
@@ -5588,7 +5585,7 @@
       <c r="F235" s="15"/>
       <c r="G235" s="15"/>
       <c r="H235" s="9"/>
-      <c r="I235" s="25"/>
+      <c r="I235" s="24"/>
     </row>
     <row r="236" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D236" s="15"/>
@@ -5596,7 +5593,7 @@
       <c r="F236" s="15"/>
       <c r="G236" s="15"/>
       <c r="H236" s="9"/>
-      <c r="I236" s="25"/>
+      <c r="I236" s="24"/>
     </row>
     <row r="237" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D237" s="15"/>
@@ -5604,7 +5601,7 @@
       <c r="F237" s="15"/>
       <c r="G237" s="15"/>
       <c r="H237" s="9"/>
-      <c r="I237" s="25"/>
+      <c r="I237" s="24"/>
     </row>
     <row r="238" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D238" s="15"/>
@@ -5612,7 +5609,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="15"/>
       <c r="H238" s="9"/>
-      <c r="I238" s="25"/>
+      <c r="I238" s="24"/>
     </row>
     <row r="239" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D239" s="15"/>
@@ -5620,7 +5617,7 @@
       <c r="F239" s="15"/>
       <c r="G239" s="15"/>
       <c r="H239" s="9"/>
-      <c r="I239" s="25"/>
+      <c r="I239" s="24"/>
     </row>
     <row r="240" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D240" s="15"/>
@@ -5628,7 +5625,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="15"/>
       <c r="H240" s="9"/>
-      <c r="I240" s="25"/>
+      <c r="I240" s="24"/>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D241" s="15"/>
@@ -5636,7 +5633,7 @@
       <c r="F241" s="15"/>
       <c r="G241" s="15"/>
       <c r="H241" s="9"/>
-      <c r="I241" s="25"/>
+      <c r="I241" s="24"/>
     </row>
     <row r="242" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D242" s="15"/>
@@ -5644,7 +5641,7 @@
       <c r="F242" s="15"/>
       <c r="G242" s="15"/>
       <c r="H242" s="9"/>
-      <c r="I242" s="25"/>
+      <c r="I242" s="24"/>
     </row>
     <row r="243" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D243" s="15"/>
@@ -5652,7 +5649,7 @@
       <c r="F243" s="15"/>
       <c r="G243" s="15"/>
       <c r="H243" s="9"/>
-      <c r="I243" s="25"/>
+      <c r="I243" s="24"/>
     </row>
     <row r="244" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D244" s="15"/>
@@ -5660,7 +5657,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="15"/>
       <c r="H244" s="9"/>
-      <c r="I244" s="25"/>
+      <c r="I244" s="24"/>
     </row>
     <row r="245" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D245" s="15"/>
@@ -5668,7 +5665,7 @@
       <c r="F245" s="15"/>
       <c r="G245" s="15"/>
       <c r="H245" s="9"/>
-      <c r="I245" s="25"/>
+      <c r="I245" s="24"/>
     </row>
     <row r="246" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D246" s="15"/>
@@ -5676,7 +5673,7 @@
       <c r="F246" s="15"/>
       <c r="G246" s="15"/>
       <c r="H246" s="9"/>
-      <c r="I246" s="25"/>
+      <c r="I246" s="24"/>
     </row>
     <row r="247" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D247" s="15"/>
@@ -5684,7 +5681,7 @@
       <c r="F247" s="15"/>
       <c r="G247" s="15"/>
       <c r="H247" s="9"/>
-      <c r="I247" s="25"/>
+      <c r="I247" s="24"/>
     </row>
     <row r="248" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D248" s="15"/>
@@ -5692,7 +5689,7 @@
       <c r="F248" s="15"/>
       <c r="G248" s="15"/>
       <c r="H248" s="9"/>
-      <c r="I248" s="25"/>
+      <c r="I248" s="24"/>
     </row>
     <row r="249" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D249" s="15"/>
@@ -5700,7 +5697,7 @@
       <c r="F249" s="15"/>
       <c r="G249" s="15"/>
       <c r="H249" s="9"/>
-      <c r="I249" s="25"/>
+      <c r="I249" s="24"/>
     </row>
     <row r="250" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D250" s="15"/>
@@ -5708,7 +5705,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="15"/>
       <c r="H250" s="9"/>
-      <c r="I250" s="25"/>
+      <c r="I250" s="24"/>
     </row>
     <row r="251" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D251" s="15"/>
@@ -5716,7 +5713,7 @@
       <c r="F251" s="15"/>
       <c r="G251" s="15"/>
       <c r="H251" s="9"/>
-      <c r="I251" s="25"/>
+      <c r="I251" s="24"/>
     </row>
     <row r="252" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D252" s="15"/>
@@ -5724,7 +5721,7 @@
       <c r="F252" s="15"/>
       <c r="G252" s="15"/>
       <c r="H252" s="9"/>
-      <c r="I252" s="25"/>
+      <c r="I252" s="24"/>
     </row>
     <row r="253" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D253" s="15"/>
@@ -5732,7 +5729,7 @@
       <c r="F253" s="15"/>
       <c r="G253" s="15"/>
       <c r="H253" s="9"/>
-      <c r="I253" s="25"/>
+      <c r="I253" s="24"/>
     </row>
     <row r="254" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D254" s="15"/>
@@ -5740,7 +5737,7 @@
       <c r="F254" s="15"/>
       <c r="G254" s="15"/>
       <c r="H254" s="9"/>
-      <c r="I254" s="25"/>
+      <c r="I254" s="24"/>
     </row>
     <row r="255" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D255" s="15"/>
@@ -5748,7 +5745,7 @@
       <c r="F255" s="15"/>
       <c r="G255" s="15"/>
       <c r="H255" s="9"/>
-      <c r="I255" s="25"/>
+      <c r="I255" s="24"/>
     </row>
     <row r="256" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D256" s="15"/>
@@ -5756,7 +5753,7 @@
       <c r="F256" s="15"/>
       <c r="G256" s="15"/>
       <c r="H256" s="9"/>
-      <c r="I256" s="25"/>
+      <c r="I256" s="24"/>
     </row>
     <row r="257" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D257" s="15"/>
@@ -5764,7 +5761,7 @@
       <c r="F257" s="15"/>
       <c r="G257" s="15"/>
       <c r="H257" s="9"/>
-      <c r="I257" s="25"/>
+      <c r="I257" s="24"/>
     </row>
     <row r="258" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D258" s="15"/>
@@ -5772,7 +5769,7 @@
       <c r="F258" s="15"/>
       <c r="G258" s="15"/>
       <c r="H258" s="9"/>
-      <c r="I258" s="25"/>
+      <c r="I258" s="24"/>
     </row>
     <row r="259" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D259" s="15"/>
@@ -5780,7 +5777,7 @@
       <c r="F259" s="15"/>
       <c r="G259" s="15"/>
       <c r="H259" s="9"/>
-      <c r="I259" s="25"/>
+      <c r="I259" s="24"/>
     </row>
     <row r="260" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D260" s="15"/>
@@ -5788,7 +5785,7 @@
       <c r="F260" s="15"/>
       <c r="G260" s="15"/>
       <c r="H260" s="9"/>
-      <c r="I260" s="25"/>
+      <c r="I260" s="24"/>
     </row>
     <row r="261" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D261" s="15"/>
@@ -5796,7 +5793,7 @@
       <c r="F261" s="15"/>
       <c r="G261" s="15"/>
       <c r="H261" s="9"/>
-      <c r="I261" s="25"/>
+      <c r="I261" s="24"/>
     </row>
     <row r="262" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D262" s="15"/>
@@ -5804,7 +5801,7 @@
       <c r="F262" s="15"/>
       <c r="G262" s="15"/>
       <c r="H262" s="9"/>
-      <c r="I262" s="25"/>
+      <c r="I262" s="24"/>
     </row>
     <row r="263" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D263" s="15"/>
@@ -5812,7 +5809,7 @@
       <c r="F263" s="15"/>
       <c r="G263" s="15"/>
       <c r="H263" s="9"/>
-      <c r="I263" s="25"/>
+      <c r="I263" s="24"/>
     </row>
     <row r="264" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D264" s="15"/>
@@ -5820,7 +5817,7 @@
       <c r="F264" s="15"/>
       <c r="G264" s="15"/>
       <c r="H264" s="9"/>
-      <c r="I264" s="25"/>
+      <c r="I264" s="24"/>
     </row>
     <row r="265" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D265" s="15"/>
@@ -5828,7 +5825,7 @@
       <c r="F265" s="15"/>
       <c r="G265" s="15"/>
       <c r="H265" s="9"/>
-      <c r="I265" s="25"/>
+      <c r="I265" s="24"/>
     </row>
     <row r="266" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D266" s="15"/>
@@ -5836,3649 +5833,3652 @@
       <c r="F266" s="15"/>
       <c r="G266" s="15"/>
       <c r="H266" s="9"/>
-      <c r="I266" s="25"/>
+      <c r="I266" s="24"/>
     </row>
     <row r="267" spans="4:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G267" s="20"/>
       <c r="H267" s="14"/>
-      <c r="I267" s="25"/>
+      <c r="I267" s="24"/>
     </row>
     <row r="268" spans="4:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G268" s="20"/>
       <c r="H268" s="14"/>
-      <c r="I268" s="25"/>
+      <c r="I268" s="24"/>
     </row>
     <row r="269" spans="4:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G269" s="20"/>
       <c r="H269" s="14"/>
-      <c r="I269" s="25"/>
+      <c r="I269" s="24"/>
     </row>
     <row r="270" spans="4:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G270" s="20"/>
       <c r="H270" s="14"/>
-      <c r="I270" s="25"/>
+      <c r="I270" s="24"/>
     </row>
     <row r="271" spans="4:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G271" s="20"/>
       <c r="H271" s="14"/>
-      <c r="I271" s="25"/>
+      <c r="I271" s="24"/>
     </row>
     <row r="272" spans="4:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G272" s="20"/>
       <c r="H272" s="14"/>
-      <c r="I272" s="25"/>
+      <c r="I272" s="24"/>
     </row>
     <row r="273" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G273" s="20"/>
       <c r="H273" s="14"/>
-      <c r="I273" s="25"/>
+      <c r="I273" s="24"/>
     </row>
     <row r="274" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G274" s="20"/>
       <c r="H274" s="14"/>
-      <c r="I274" s="25"/>
+      <c r="I274" s="24"/>
     </row>
     <row r="275" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G275" s="20"/>
       <c r="H275" s="14"/>
-      <c r="I275" s="25"/>
+      <c r="I275" s="24"/>
     </row>
     <row r="276" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G276" s="20"/>
       <c r="H276" s="14"/>
-      <c r="I276" s="25"/>
+      <c r="I276" s="24"/>
     </row>
     <row r="277" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G277" s="20"/>
       <c r="H277" s="14"/>
-      <c r="I277" s="25"/>
+      <c r="I277" s="24"/>
     </row>
     <row r="278" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G278" s="20"/>
       <c r="H278" s="14"/>
-      <c r="I278" s="25"/>
+      <c r="I278" s="24"/>
     </row>
     <row r="279" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G279" s="20"/>
       <c r="H279" s="14"/>
-      <c r="I279" s="25"/>
+      <c r="I279" s="24"/>
     </row>
     <row r="280" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G280" s="20"/>
       <c r="H280" s="14"/>
-      <c r="I280" s="25"/>
+      <c r="I280" s="24"/>
     </row>
     <row r="281" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G281" s="20"/>
       <c r="H281" s="14"/>
-      <c r="I281" s="25"/>
+      <c r="I281" s="24"/>
     </row>
     <row r="282" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G282" s="20"/>
       <c r="H282" s="14"/>
-      <c r="I282" s="25"/>
+      <c r="I282" s="24"/>
     </row>
     <row r="283" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G283" s="20"/>
       <c r="H283" s="14"/>
-      <c r="I283" s="25"/>
+      <c r="I283" s="24"/>
     </row>
     <row r="284" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G284" s="20"/>
       <c r="H284" s="14"/>
-      <c r="I284" s="25"/>
+      <c r="I284" s="24"/>
     </row>
     <row r="285" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G285" s="20"/>
       <c r="H285" s="14"/>
-      <c r="I285" s="25"/>
+      <c r="I285" s="24"/>
     </row>
     <row r="286" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G286" s="20"/>
       <c r="H286" s="14"/>
-      <c r="I286" s="25"/>
+      <c r="I286" s="24"/>
     </row>
     <row r="287" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G287" s="20"/>
       <c r="H287" s="14"/>
-      <c r="I287" s="25"/>
+      <c r="I287" s="24"/>
     </row>
     <row r="288" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G288" s="20"/>
       <c r="H288" s="14"/>
-      <c r="I288" s="25"/>
+      <c r="I288" s="24"/>
     </row>
     <row r="289" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G289" s="20"/>
       <c r="H289" s="14"/>
-      <c r="I289" s="25"/>
+      <c r="I289" s="24"/>
     </row>
     <row r="290" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G290" s="20"/>
       <c r="H290" s="14"/>
-      <c r="I290" s="25"/>
+      <c r="I290" s="24"/>
     </row>
     <row r="291" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G291" s="20"/>
       <c r="H291" s="14"/>
-      <c r="I291" s="25"/>
+      <c r="I291" s="24"/>
     </row>
     <row r="292" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G292" s="20"/>
       <c r="H292" s="14"/>
-      <c r="I292" s="25"/>
+      <c r="I292" s="24"/>
     </row>
     <row r="293" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G293" s="20"/>
       <c r="H293" s="14"/>
-      <c r="I293" s="25"/>
+      <c r="I293" s="24"/>
     </row>
     <row r="294" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G294" s="20"/>
       <c r="H294" s="14"/>
-      <c r="I294" s="25"/>
+      <c r="I294" s="24"/>
     </row>
     <row r="295" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G295" s="20"/>
       <c r="H295" s="14"/>
-      <c r="I295" s="25"/>
+      <c r="I295" s="24"/>
     </row>
     <row r="296" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G296" s="20"/>
       <c r="H296" s="14"/>
-      <c r="I296" s="25"/>
+      <c r="I296" s="24"/>
     </row>
     <row r="297" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G297" s="20"/>
       <c r="H297" s="14"/>
-      <c r="I297" s="25"/>
+      <c r="I297" s="24"/>
     </row>
     <row r="298" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G298" s="20"/>
       <c r="H298" s="14"/>
-      <c r="I298" s="25"/>
+      <c r="I298" s="24"/>
     </row>
     <row r="299" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G299" s="20"/>
       <c r="H299" s="14"/>
-      <c r="I299" s="25"/>
+      <c r="I299" s="24"/>
     </row>
     <row r="300" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G300" s="20"/>
       <c r="H300" s="14"/>
-      <c r="I300" s="25"/>
+      <c r="I300" s="24"/>
     </row>
     <row r="301" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G301" s="20"/>
       <c r="H301" s="14"/>
-      <c r="I301" s="25"/>
+      <c r="I301" s="24"/>
     </row>
     <row r="302" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G302" s="20"/>
       <c r="H302" s="14"/>
-      <c r="I302" s="25"/>
+      <c r="I302" s="24"/>
     </row>
     <row r="303" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G303" s="20"/>
       <c r="H303" s="14"/>
-      <c r="I303" s="25"/>
+      <c r="I303" s="24"/>
     </row>
     <row r="304" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G304" s="20"/>
       <c r="H304" s="14"/>
-      <c r="I304" s="25"/>
+      <c r="I304" s="24"/>
     </row>
     <row r="305" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G305" s="20"/>
       <c r="H305" s="14"/>
-      <c r="I305" s="25"/>
+      <c r="I305" s="24"/>
     </row>
     <row r="306" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G306" s="20"/>
       <c r="H306" s="14"/>
-      <c r="I306" s="25"/>
+      <c r="I306" s="24"/>
     </row>
     <row r="307" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G307" s="20"/>
       <c r="H307" s="14"/>
-      <c r="I307" s="25"/>
+      <c r="I307" s="24"/>
     </row>
     <row r="308" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G308" s="20"/>
       <c r="H308" s="14"/>
-      <c r="I308" s="25"/>
+      <c r="I308" s="24"/>
     </row>
     <row r="309" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G309" s="20"/>
       <c r="H309" s="14"/>
-      <c r="I309" s="25"/>
+      <c r="I309" s="24"/>
     </row>
     <row r="310" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G310" s="20"/>
       <c r="H310" s="14"/>
-      <c r="I310" s="25"/>
+      <c r="I310" s="24"/>
     </row>
     <row r="311" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G311" s="20"/>
       <c r="H311" s="14"/>
-      <c r="I311" s="25"/>
+      <c r="I311" s="24"/>
     </row>
     <row r="312" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G312" s="20"/>
       <c r="H312" s="14"/>
-      <c r="I312" s="25"/>
+      <c r="I312" s="24"/>
     </row>
     <row r="313" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G313" s="20"/>
       <c r="H313" s="14"/>
-      <c r="I313" s="25"/>
+      <c r="I313" s="24"/>
     </row>
     <row r="314" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G314" s="20"/>
       <c r="H314" s="14"/>
-      <c r="I314" s="25"/>
+      <c r="I314" s="24"/>
     </row>
     <row r="315" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G315" s="20"/>
       <c r="H315" s="14"/>
-      <c r="I315" s="25"/>
+      <c r="I315" s="24"/>
     </row>
     <row r="316" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G316" s="20"/>
       <c r="H316" s="14"/>
-      <c r="I316" s="25"/>
+      <c r="I316" s="24"/>
     </row>
     <row r="317" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G317" s="20"/>
       <c r="H317" s="14"/>
-      <c r="I317" s="25"/>
+      <c r="I317" s="24"/>
     </row>
     <row r="318" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G318" s="20"/>
       <c r="H318" s="14"/>
-      <c r="I318" s="25"/>
+      <c r="I318" s="24"/>
     </row>
     <row r="319" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G319" s="20"/>
       <c r="H319" s="14"/>
-      <c r="I319" s="25"/>
+      <c r="I319" s="24"/>
     </row>
     <row r="320" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G320" s="20"/>
       <c r="H320" s="14"/>
-      <c r="I320" s="25"/>
+      <c r="I320" s="24"/>
     </row>
     <row r="321" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G321" s="20"/>
       <c r="H321" s="14"/>
-      <c r="I321" s="25"/>
+      <c r="I321" s="24"/>
     </row>
     <row r="322" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G322" s="20"/>
       <c r="H322" s="14"/>
-      <c r="I322" s="25"/>
+      <c r="I322" s="24"/>
     </row>
     <row r="323" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G323" s="20"/>
       <c r="H323" s="14"/>
-      <c r="I323" s="25"/>
+      <c r="I323" s="24"/>
     </row>
     <row r="324" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G324" s="20"/>
       <c r="H324" s="14"/>
-      <c r="I324" s="25"/>
+      <c r="I324" s="24"/>
     </row>
     <row r="325" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G325" s="20"/>
       <c r="H325" s="14"/>
-      <c r="I325" s="25"/>
+      <c r="I325" s="24"/>
     </row>
     <row r="326" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G326" s="20"/>
       <c r="H326" s="14"/>
-      <c r="I326" s="25"/>
+      <c r="I326" s="24"/>
     </row>
     <row r="327" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G327" s="20"/>
       <c r="H327" s="14"/>
-      <c r="I327" s="25"/>
+      <c r="I327" s="24"/>
     </row>
     <row r="328" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G328" s="20"/>
       <c r="H328" s="14"/>
-      <c r="I328" s="25"/>
+      <c r="I328" s="24"/>
     </row>
     <row r="329" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G329" s="20"/>
       <c r="H329" s="14"/>
-      <c r="I329" s="25"/>
+      <c r="I329" s="24"/>
     </row>
     <row r="330" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G330" s="20"/>
       <c r="H330" s="14"/>
-      <c r="I330" s="25"/>
+      <c r="I330" s="24"/>
     </row>
     <row r="331" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G331" s="20"/>
       <c r="H331" s="14"/>
-      <c r="I331" s="25"/>
+      <c r="I331" s="24"/>
     </row>
     <row r="332" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G332" s="20"/>
       <c r="H332" s="14"/>
-      <c r="I332" s="25"/>
+      <c r="I332" s="24"/>
     </row>
     <row r="333" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G333" s="20"/>
       <c r="H333" s="14"/>
-      <c r="I333" s="25"/>
+      <c r="I333" s="24"/>
     </row>
     <row r="334" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G334" s="20"/>
       <c r="H334" s="14"/>
-      <c r="I334" s="25"/>
+      <c r="I334" s="24"/>
     </row>
     <row r="335" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G335" s="20"/>
       <c r="H335" s="14"/>
-      <c r="I335" s="25"/>
+      <c r="I335" s="24"/>
     </row>
     <row r="336" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G336" s="20"/>
       <c r="H336" s="14"/>
-      <c r="I336" s="25"/>
+      <c r="I336" s="24"/>
     </row>
     <row r="337" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G337" s="20"/>
       <c r="H337" s="14"/>
-      <c r="I337" s="25"/>
+      <c r="I337" s="24"/>
     </row>
     <row r="338" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G338" s="20"/>
       <c r="H338" s="14"/>
-      <c r="I338" s="25"/>
+      <c r="I338" s="24"/>
     </row>
     <row r="339" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G339" s="20"/>
       <c r="H339" s="14"/>
-      <c r="I339" s="25"/>
+      <c r="I339" s="24"/>
     </row>
     <row r="340" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G340" s="20"/>
       <c r="H340" s="14"/>
-      <c r="I340" s="25"/>
+      <c r="I340" s="24"/>
     </row>
     <row r="341" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G341" s="20"/>
       <c r="H341" s="14"/>
-      <c r="I341" s="25"/>
+      <c r="I341" s="24"/>
     </row>
     <row r="342" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G342" s="20"/>
       <c r="H342" s="14"/>
-      <c r="I342" s="25"/>
+      <c r="I342" s="24"/>
     </row>
     <row r="343" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G343" s="20"/>
       <c r="H343" s="14"/>
-      <c r="I343" s="25"/>
+      <c r="I343" s="24"/>
     </row>
     <row r="344" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G344" s="20"/>
       <c r="H344" s="14"/>
-      <c r="I344" s="25"/>
+      <c r="I344" s="24"/>
     </row>
     <row r="345" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G345" s="20"/>
       <c r="H345" s="14"/>
-      <c r="I345" s="25"/>
+      <c r="I345" s="24"/>
     </row>
     <row r="346" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G346" s="20"/>
       <c r="H346" s="14"/>
-      <c r="I346" s="25"/>
+      <c r="I346" s="24"/>
     </row>
     <row r="347" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G347" s="20"/>
       <c r="H347" s="14"/>
-      <c r="I347" s="25"/>
+      <c r="I347" s="24"/>
     </row>
     <row r="348" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G348" s="20"/>
       <c r="H348" s="14"/>
-      <c r="I348" s="25"/>
+      <c r="I348" s="24"/>
     </row>
     <row r="349" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G349" s="20"/>
       <c r="H349" s="14"/>
-      <c r="I349" s="25"/>
+      <c r="I349" s="24"/>
     </row>
     <row r="350" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G350" s="20"/>
       <c r="H350" s="14"/>
-      <c r="I350" s="25"/>
+      <c r="I350" s="24"/>
     </row>
     <row r="351" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G351" s="20"/>
       <c r="H351" s="14"/>
-      <c r="I351" s="25"/>
+      <c r="I351" s="24"/>
     </row>
     <row r="352" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G352" s="20"/>
       <c r="H352" s="14"/>
-      <c r="I352" s="25"/>
+      <c r="I352" s="24"/>
     </row>
     <row r="353" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G353" s="20"/>
       <c r="H353" s="14"/>
-      <c r="I353" s="25"/>
+      <c r="I353" s="24"/>
     </row>
     <row r="354" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G354" s="20"/>
       <c r="H354" s="14"/>
-      <c r="I354" s="25"/>
+      <c r="I354" s="24"/>
     </row>
     <row r="355" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G355" s="20"/>
       <c r="H355" s="14"/>
-      <c r="I355" s="25"/>
+      <c r="I355" s="24"/>
     </row>
     <row r="356" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G356" s="20"/>
       <c r="H356" s="14"/>
-      <c r="I356" s="25"/>
+      <c r="I356" s="24"/>
     </row>
     <row r="357" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G357" s="20"/>
       <c r="H357" s="14"/>
-      <c r="I357" s="25"/>
+      <c r="I357" s="24"/>
     </row>
     <row r="358" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G358" s="20"/>
       <c r="H358" s="14"/>
-      <c r="I358" s="25"/>
+      <c r="I358" s="24"/>
     </row>
     <row r="359" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G359" s="20"/>
       <c r="H359" s="14"/>
-      <c r="I359" s="25"/>
+      <c r="I359" s="24"/>
     </row>
     <row r="360" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G360" s="20"/>
       <c r="H360" s="14"/>
-      <c r="I360" s="25"/>
+      <c r="I360" s="24"/>
     </row>
     <row r="361" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G361" s="20"/>
       <c r="H361" s="14"/>
-      <c r="I361" s="25"/>
+      <c r="I361" s="24"/>
     </row>
     <row r="362" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G362" s="20"/>
       <c r="H362" s="14"/>
-      <c r="I362" s="25"/>
+      <c r="I362" s="24"/>
     </row>
     <row r="363" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G363" s="20"/>
       <c r="H363" s="14"/>
-      <c r="I363" s="25"/>
+      <c r="I363" s="24"/>
     </row>
     <row r="364" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G364" s="20"/>
       <c r="H364" s="14"/>
-      <c r="I364" s="25"/>
+      <c r="I364" s="24"/>
     </row>
     <row r="365" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G365" s="20"/>
       <c r="H365" s="14"/>
-      <c r="I365" s="25"/>
+      <c r="I365" s="24"/>
     </row>
     <row r="366" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G366" s="20"/>
       <c r="H366" s="14"/>
-      <c r="I366" s="25"/>
+      <c r="I366" s="24"/>
     </row>
     <row r="367" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G367" s="20"/>
       <c r="H367" s="14"/>
-      <c r="I367" s="25"/>
+      <c r="I367" s="24"/>
     </row>
     <row r="368" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G368" s="20"/>
       <c r="H368" s="14"/>
-      <c r="I368" s="25"/>
+      <c r="I368" s="24"/>
     </row>
     <row r="369" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G369" s="20"/>
       <c r="H369" s="14"/>
-      <c r="I369" s="25"/>
+      <c r="I369" s="24"/>
     </row>
     <row r="370" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G370" s="20"/>
       <c r="H370" s="14"/>
-      <c r="I370" s="25"/>
+      <c r="I370" s="24"/>
     </row>
     <row r="371" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G371" s="20"/>
       <c r="H371" s="14"/>
-      <c r="I371" s="25"/>
+      <c r="I371" s="24"/>
     </row>
     <row r="372" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G372" s="20"/>
       <c r="H372" s="14"/>
-      <c r="I372" s="25"/>
+      <c r="I372" s="24"/>
     </row>
     <row r="373" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G373" s="20"/>
       <c r="H373" s="14"/>
-      <c r="I373" s="25"/>
+      <c r="I373" s="24"/>
     </row>
     <row r="374" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G374" s="20"/>
       <c r="H374" s="14"/>
-      <c r="I374" s="25"/>
+      <c r="I374" s="24"/>
     </row>
     <row r="375" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G375" s="20"/>
       <c r="H375" s="14"/>
-      <c r="I375" s="25"/>
+      <c r="I375" s="24"/>
     </row>
     <row r="376" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G376" s="20"/>
       <c r="H376" s="14"/>
-      <c r="I376" s="25"/>
+      <c r="I376" s="24"/>
     </row>
     <row r="377" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G377" s="20"/>
       <c r="H377" s="14"/>
-      <c r="I377" s="25"/>
+      <c r="I377" s="24"/>
     </row>
     <row r="378" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G378" s="20"/>
       <c r="H378" s="14"/>
-      <c r="I378" s="25"/>
+      <c r="I378" s="24"/>
     </row>
     <row r="379" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G379" s="20"/>
       <c r="H379" s="14"/>
-      <c r="I379" s="25"/>
+      <c r="I379" s="24"/>
     </row>
     <row r="380" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G380" s="20"/>
       <c r="H380" s="14"/>
-      <c r="I380" s="25"/>
+      <c r="I380" s="24"/>
     </row>
     <row r="381" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G381" s="20"/>
       <c r="H381" s="14"/>
-      <c r="I381" s="25"/>
+      <c r="I381" s="24"/>
     </row>
     <row r="382" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G382" s="20"/>
       <c r="H382" s="14"/>
-      <c r="I382" s="25"/>
+      <c r="I382" s="24"/>
     </row>
     <row r="383" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G383" s="20"/>
       <c r="H383" s="14"/>
-      <c r="I383" s="25"/>
+      <c r="I383" s="24"/>
     </row>
     <row r="384" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G384" s="20"/>
       <c r="H384" s="14"/>
-      <c r="I384" s="25"/>
+      <c r="I384" s="24"/>
     </row>
     <row r="385" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G385" s="20"/>
       <c r="H385" s="14"/>
-      <c r="I385" s="25"/>
+      <c r="I385" s="24"/>
     </row>
     <row r="386" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G386" s="20"/>
       <c r="H386" s="14"/>
-      <c r="I386" s="25"/>
+      <c r="I386" s="24"/>
     </row>
     <row r="387" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G387" s="20"/>
       <c r="H387" s="14"/>
-      <c r="I387" s="25"/>
+      <c r="I387" s="24"/>
     </row>
     <row r="388" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G388" s="20"/>
       <c r="H388" s="14"/>
-      <c r="I388" s="25"/>
+      <c r="I388" s="24"/>
     </row>
     <row r="389" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G389" s="20"/>
       <c r="H389" s="14"/>
-      <c r="I389" s="25"/>
+      <c r="I389" s="24"/>
     </row>
     <row r="390" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G390" s="20"/>
       <c r="H390" s="14"/>
-      <c r="I390" s="25"/>
+      <c r="I390" s="24"/>
     </row>
     <row r="391" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G391" s="20"/>
       <c r="H391" s="14"/>
-      <c r="I391" s="25"/>
+      <c r="I391" s="24"/>
     </row>
     <row r="392" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G392" s="20"/>
       <c r="H392" s="14"/>
-      <c r="I392" s="25"/>
+      <c r="I392" s="24"/>
     </row>
     <row r="393" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G393" s="20"/>
       <c r="H393" s="14"/>
-      <c r="I393" s="25"/>
+      <c r="I393" s="24"/>
     </row>
     <row r="394" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G394" s="20"/>
       <c r="H394" s="14"/>
-      <c r="I394" s="25"/>
+      <c r="I394" s="24"/>
     </row>
     <row r="395" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G395" s="20"/>
       <c r="H395" s="14"/>
-      <c r="I395" s="25"/>
+      <c r="I395" s="24"/>
     </row>
     <row r="396" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G396" s="20"/>
       <c r="H396" s="14"/>
-      <c r="I396" s="25"/>
+      <c r="I396" s="24"/>
     </row>
     <row r="397" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G397" s="20"/>
       <c r="H397" s="14"/>
-      <c r="I397" s="25"/>
+      <c r="I397" s="24"/>
     </row>
     <row r="398" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G398" s="20"/>
       <c r="H398" s="14"/>
-      <c r="I398" s="25"/>
+      <c r="I398" s="24"/>
     </row>
     <row r="399" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G399" s="20"/>
       <c r="H399" s="14"/>
-      <c r="I399" s="25"/>
+      <c r="I399" s="24"/>
     </row>
     <row r="400" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G400" s="20"/>
       <c r="H400" s="14"/>
-      <c r="I400" s="25"/>
+      <c r="I400" s="24"/>
     </row>
     <row r="401" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G401" s="20"/>
       <c r="H401" s="14"/>
-      <c r="I401" s="25"/>
+      <c r="I401" s="24"/>
     </row>
     <row r="402" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G402" s="20"/>
       <c r="H402" s="14"/>
-      <c r="I402" s="25"/>
+      <c r="I402" s="24"/>
     </row>
     <row r="403" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G403" s="20"/>
       <c r="H403" s="14"/>
-      <c r="I403" s="25"/>
+      <c r="I403" s="24"/>
     </row>
     <row r="404" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G404" s="20"/>
       <c r="H404" s="14"/>
-      <c r="I404" s="25"/>
+      <c r="I404" s="24"/>
     </row>
     <row r="405" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G405" s="20"/>
       <c r="H405" s="14"/>
-      <c r="I405" s="25"/>
+      <c r="I405" s="24"/>
     </row>
     <row r="406" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G406" s="20"/>
       <c r="H406" s="14"/>
-      <c r="I406" s="25"/>
+      <c r="I406" s="24"/>
     </row>
     <row r="407" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G407" s="20"/>
       <c r="H407" s="14"/>
-      <c r="I407" s="25"/>
+      <c r="I407" s="24"/>
     </row>
     <row r="408" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G408" s="20"/>
       <c r="H408" s="14"/>
-      <c r="I408" s="25"/>
+      <c r="I408" s="24"/>
     </row>
     <row r="409" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G409" s="20"/>
       <c r="H409" s="14"/>
-      <c r="I409" s="25"/>
+      <c r="I409" s="24"/>
     </row>
     <row r="410" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G410" s="20"/>
       <c r="H410" s="14"/>
-      <c r="I410" s="25"/>
+      <c r="I410" s="24"/>
     </row>
     <row r="411" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G411" s="20"/>
       <c r="H411" s="14"/>
-      <c r="I411" s="25"/>
+      <c r="I411" s="24"/>
     </row>
     <row r="412" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G412" s="20"/>
       <c r="H412" s="14"/>
-      <c r="I412" s="25"/>
+      <c r="I412" s="24"/>
     </row>
     <row r="413" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G413" s="20"/>
       <c r="H413" s="14"/>
-      <c r="I413" s="25"/>
+      <c r="I413" s="24"/>
     </row>
     <row r="414" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G414" s="20"/>
       <c r="H414" s="14"/>
-      <c r="I414" s="25"/>
+      <c r="I414" s="24"/>
     </row>
     <row r="415" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G415" s="20"/>
       <c r="H415" s="14"/>
-      <c r="I415" s="25"/>
+      <c r="I415" s="24"/>
     </row>
     <row r="416" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G416" s="20"/>
       <c r="H416" s="14"/>
-      <c r="I416" s="25"/>
+      <c r="I416" s="24"/>
     </row>
     <row r="417" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G417" s="20"/>
       <c r="H417" s="14"/>
-      <c r="I417" s="25"/>
+      <c r="I417" s="24"/>
     </row>
     <row r="418" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G418" s="20"/>
       <c r="H418" s="14"/>
-      <c r="I418" s="25"/>
+      <c r="I418" s="24"/>
     </row>
     <row r="419" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G419" s="20"/>
       <c r="H419" s="14"/>
-      <c r="I419" s="25"/>
+      <c r="I419" s="24"/>
     </row>
     <row r="420" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G420" s="20"/>
       <c r="H420" s="14"/>
-      <c r="I420" s="25"/>
+      <c r="I420" s="24"/>
     </row>
     <row r="421" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G421" s="20"/>
       <c r="H421" s="14"/>
-      <c r="I421" s="25"/>
+      <c r="I421" s="24"/>
     </row>
     <row r="422" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G422" s="20"/>
       <c r="H422" s="14"/>
-      <c r="I422" s="25"/>
+      <c r="I422" s="24"/>
     </row>
     <row r="423" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G423" s="20"/>
       <c r="H423" s="14"/>
-      <c r="I423" s="25"/>
+      <c r="I423" s="24"/>
     </row>
     <row r="424" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G424" s="20"/>
       <c r="H424" s="14"/>
-      <c r="I424" s="25"/>
+      <c r="I424" s="24"/>
     </row>
     <row r="425" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G425" s="20"/>
       <c r="H425" s="14"/>
-      <c r="I425" s="25"/>
+      <c r="I425" s="24"/>
     </row>
     <row r="426" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G426" s="20"/>
       <c r="H426" s="14"/>
-      <c r="I426" s="25"/>
+      <c r="I426" s="24"/>
     </row>
     <row r="427" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G427" s="20"/>
       <c r="H427" s="14"/>
-      <c r="I427" s="25"/>
+      <c r="I427" s="24"/>
     </row>
     <row r="428" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G428" s="20"/>
       <c r="H428" s="14"/>
-      <c r="I428" s="25"/>
+      <c r="I428" s="24"/>
     </row>
     <row r="429" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G429" s="20"/>
       <c r="H429" s="14"/>
-      <c r="I429" s="25"/>
+      <c r="I429" s="24"/>
     </row>
     <row r="430" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G430" s="20"/>
       <c r="H430" s="14"/>
-      <c r="I430" s="25"/>
+      <c r="I430" s="24"/>
     </row>
     <row r="431" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G431" s="20"/>
       <c r="H431" s="14"/>
-      <c r="I431" s="25"/>
+      <c r="I431" s="24"/>
     </row>
     <row r="432" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G432" s="20"/>
       <c r="H432" s="14"/>
-      <c r="I432" s="25"/>
+      <c r="I432" s="24"/>
     </row>
     <row r="433" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G433" s="20"/>
       <c r="H433" s="14"/>
-      <c r="I433" s="25"/>
+      <c r="I433" s="24"/>
     </row>
     <row r="434" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G434" s="20"/>
       <c r="H434" s="14"/>
-      <c r="I434" s="25"/>
+      <c r="I434" s="24"/>
     </row>
     <row r="435" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G435" s="20"/>
       <c r="H435" s="14"/>
-      <c r="I435" s="25"/>
+      <c r="I435" s="24"/>
     </row>
     <row r="436" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G436" s="20"/>
       <c r="H436" s="14"/>
-      <c r="I436" s="25"/>
+      <c r="I436" s="24"/>
     </row>
     <row r="437" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G437" s="20"/>
       <c r="H437" s="14"/>
-      <c r="I437" s="25"/>
+      <c r="I437" s="24"/>
     </row>
     <row r="438" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G438" s="20"/>
       <c r="H438" s="14"/>
-      <c r="I438" s="25"/>
+      <c r="I438" s="24"/>
     </row>
     <row r="439" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G439" s="20"/>
       <c r="H439" s="14"/>
-      <c r="I439" s="25"/>
+      <c r="I439" s="24"/>
     </row>
     <row r="440" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G440" s="20"/>
       <c r="H440" s="14"/>
-      <c r="I440" s="25"/>
+      <c r="I440" s="24"/>
     </row>
     <row r="441" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G441" s="20"/>
       <c r="H441" s="14"/>
-      <c r="I441" s="25"/>
+      <c r="I441" s="24"/>
     </row>
     <row r="442" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G442" s="20"/>
       <c r="H442" s="14"/>
-      <c r="I442" s="25"/>
+      <c r="I442" s="24"/>
     </row>
     <row r="443" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G443" s="20"/>
       <c r="H443" s="14"/>
-      <c r="I443" s="25"/>
+      <c r="I443" s="24"/>
     </row>
     <row r="444" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G444" s="20"/>
       <c r="H444" s="14"/>
-      <c r="I444" s="25"/>
+      <c r="I444" s="24"/>
     </row>
     <row r="445" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G445" s="20"/>
       <c r="H445" s="14"/>
-      <c r="I445" s="25"/>
+      <c r="I445" s="24"/>
     </row>
     <row r="446" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G446" s="20"/>
       <c r="H446" s="14"/>
-      <c r="I446" s="25"/>
+      <c r="I446" s="24"/>
     </row>
     <row r="447" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G447" s="20"/>
       <c r="H447" s="14"/>
-      <c r="I447" s="25"/>
+      <c r="I447" s="24"/>
     </row>
     <row r="448" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G448" s="20"/>
       <c r="H448" s="14"/>
-      <c r="I448" s="25"/>
+      <c r="I448" s="24"/>
     </row>
     <row r="449" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G449" s="20"/>
       <c r="H449" s="14"/>
-      <c r="I449" s="25"/>
+      <c r="I449" s="24"/>
     </row>
     <row r="450" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G450" s="20"/>
       <c r="H450" s="14"/>
-      <c r="I450" s="25"/>
+      <c r="I450" s="24"/>
     </row>
     <row r="451" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G451" s="20"/>
       <c r="H451" s="14"/>
-      <c r="I451" s="25"/>
+      <c r="I451" s="24"/>
     </row>
     <row r="452" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G452" s="20"/>
       <c r="H452" s="14"/>
-      <c r="I452" s="25"/>
+      <c r="I452" s="24"/>
     </row>
     <row r="453" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G453" s="20"/>
       <c r="H453" s="14"/>
-      <c r="I453" s="25"/>
+      <c r="I453" s="24"/>
     </row>
     <row r="454" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G454" s="20"/>
       <c r="H454" s="14"/>
-      <c r="I454" s="25"/>
+      <c r="I454" s="24"/>
     </row>
     <row r="455" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G455" s="20"/>
       <c r="H455" s="14"/>
-      <c r="I455" s="25"/>
+      <c r="I455" s="24"/>
     </row>
     <row r="456" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G456" s="20"/>
       <c r="H456" s="14"/>
-      <c r="I456" s="25"/>
+      <c r="I456" s="24"/>
     </row>
     <row r="457" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G457" s="20"/>
       <c r="H457" s="14"/>
-      <c r="I457" s="25"/>
+      <c r="I457" s="24"/>
     </row>
     <row r="458" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G458" s="20"/>
       <c r="H458" s="14"/>
-      <c r="I458" s="25"/>
+      <c r="I458" s="24"/>
     </row>
     <row r="459" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G459" s="20"/>
       <c r="H459" s="14"/>
-      <c r="I459" s="25"/>
+      <c r="I459" s="24"/>
     </row>
     <row r="460" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G460" s="20"/>
       <c r="H460" s="14"/>
-      <c r="I460" s="25"/>
+      <c r="I460" s="24"/>
     </row>
     <row r="461" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G461" s="20"/>
       <c r="H461" s="14"/>
-      <c r="I461" s="25"/>
+      <c r="I461" s="24"/>
     </row>
     <row r="462" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G462" s="20"/>
       <c r="H462" s="14"/>
-      <c r="I462" s="25"/>
+      <c r="I462" s="24"/>
     </row>
     <row r="463" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G463" s="20"/>
       <c r="H463" s="14"/>
-      <c r="I463" s="25"/>
+      <c r="I463" s="24"/>
     </row>
     <row r="464" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G464" s="20"/>
       <c r="H464" s="14"/>
-      <c r="I464" s="25"/>
+      <c r="I464" s="24"/>
     </row>
     <row r="465" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G465" s="20"/>
       <c r="H465" s="14"/>
-      <c r="I465" s="25"/>
+      <c r="I465" s="24"/>
     </row>
     <row r="466" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G466" s="20"/>
       <c r="H466" s="14"/>
-      <c r="I466" s="25"/>
+      <c r="I466" s="24"/>
     </row>
     <row r="467" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G467" s="20"/>
       <c r="H467" s="14"/>
-      <c r="I467" s="25"/>
+      <c r="I467" s="24"/>
     </row>
     <row r="468" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G468" s="20"/>
       <c r="H468" s="14"/>
-      <c r="I468" s="25"/>
+      <c r="I468" s="24"/>
     </row>
     <row r="469" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G469" s="20"/>
       <c r="H469" s="14"/>
-      <c r="I469" s="25"/>
+      <c r="I469" s="24"/>
     </row>
     <row r="470" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G470" s="20"/>
       <c r="H470" s="14"/>
-      <c r="I470" s="25"/>
+      <c r="I470" s="24"/>
     </row>
     <row r="471" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G471" s="20"/>
       <c r="H471" s="14"/>
-      <c r="I471" s="25"/>
+      <c r="I471" s="24"/>
     </row>
     <row r="472" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G472" s="20"/>
       <c r="H472" s="14"/>
-      <c r="I472" s="25"/>
+      <c r="I472" s="24"/>
     </row>
     <row r="473" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G473" s="20"/>
       <c r="H473" s="14"/>
-      <c r="I473" s="25"/>
+      <c r="I473" s="24"/>
     </row>
     <row r="474" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G474" s="20"/>
       <c r="H474" s="14"/>
-      <c r="I474" s="25"/>
+      <c r="I474" s="24"/>
     </row>
     <row r="475" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G475" s="20"/>
       <c r="H475" s="14"/>
-      <c r="I475" s="25"/>
+      <c r="I475" s="24"/>
     </row>
     <row r="476" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G476" s="20"/>
       <c r="H476" s="14"/>
-      <c r="I476" s="25"/>
+      <c r="I476" s="24"/>
     </row>
     <row r="477" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G477" s="20"/>
       <c r="H477" s="14"/>
-      <c r="I477" s="25"/>
+      <c r="I477" s="24"/>
     </row>
     <row r="478" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G478" s="20"/>
       <c r="H478" s="14"/>
-      <c r="I478" s="25"/>
+      <c r="I478" s="24"/>
     </row>
     <row r="479" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G479" s="20"/>
       <c r="H479" s="14"/>
-      <c r="I479" s="25"/>
+      <c r="I479" s="24"/>
     </row>
     <row r="480" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G480" s="20"/>
       <c r="H480" s="14"/>
-      <c r="I480" s="25"/>
+      <c r="I480" s="24"/>
     </row>
     <row r="481" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G481" s="20"/>
       <c r="H481" s="14"/>
-      <c r="I481" s="25"/>
+      <c r="I481" s="24"/>
     </row>
     <row r="482" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G482" s="20"/>
       <c r="H482" s="14"/>
-      <c r="I482" s="25"/>
+      <c r="I482" s="24"/>
     </row>
     <row r="483" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G483" s="20"/>
       <c r="H483" s="14"/>
-      <c r="I483" s="25"/>
+      <c r="I483" s="24"/>
     </row>
     <row r="484" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G484" s="20"/>
       <c r="H484" s="14"/>
-      <c r="I484" s="25"/>
+      <c r="I484" s="24"/>
     </row>
     <row r="485" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G485" s="20"/>
       <c r="H485" s="14"/>
-      <c r="I485" s="25"/>
+      <c r="I485" s="24"/>
     </row>
     <row r="486" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G486" s="20"/>
       <c r="H486" s="14"/>
-      <c r="I486" s="25"/>
+      <c r="I486" s="24"/>
     </row>
     <row r="487" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G487" s="20"/>
       <c r="H487" s="14"/>
-      <c r="I487" s="25"/>
+      <c r="I487" s="24"/>
     </row>
     <row r="488" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G488" s="20"/>
       <c r="H488" s="14"/>
-      <c r="I488" s="25"/>
+      <c r="I488" s="24"/>
     </row>
     <row r="489" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G489" s="20"/>
       <c r="H489" s="14"/>
-      <c r="I489" s="25"/>
+      <c r="I489" s="24"/>
     </row>
     <row r="490" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G490" s="20"/>
       <c r="H490" s="14"/>
-      <c r="I490" s="25"/>
+      <c r="I490" s="24"/>
     </row>
     <row r="491" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G491" s="20"/>
       <c r="H491" s="14"/>
-      <c r="I491" s="25"/>
+      <c r="I491" s="24"/>
     </row>
     <row r="492" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G492" s="20"/>
       <c r="H492" s="14"/>
-      <c r="I492" s="25"/>
+      <c r="I492" s="24"/>
     </row>
     <row r="493" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G493" s="20"/>
       <c r="H493" s="14"/>
-      <c r="I493" s="25"/>
+      <c r="I493" s="24"/>
     </row>
     <row r="494" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G494" s="20"/>
       <c r="H494" s="14"/>
-      <c r="I494" s="25"/>
+      <c r="I494" s="24"/>
     </row>
     <row r="495" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G495" s="20"/>
       <c r="H495" s="14"/>
-      <c r="I495" s="25"/>
+      <c r="I495" s="24"/>
     </row>
     <row r="496" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G496" s="20"/>
       <c r="H496" s="14"/>
-      <c r="I496" s="25"/>
+      <c r="I496" s="24"/>
     </row>
     <row r="497" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G497" s="20"/>
       <c r="H497" s="14"/>
-      <c r="I497" s="25"/>
+      <c r="I497" s="24"/>
     </row>
     <row r="498" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G498" s="20"/>
       <c r="H498" s="14"/>
-      <c r="I498" s="25"/>
+      <c r="I498" s="24"/>
     </row>
     <row r="499" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G499" s="20"/>
       <c r="H499" s="14"/>
-      <c r="I499" s="25"/>
+      <c r="I499" s="24"/>
     </row>
     <row r="500" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G500" s="20"/>
       <c r="H500" s="14"/>
-      <c r="I500" s="25"/>
+      <c r="I500" s="24"/>
     </row>
     <row r="501" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G501" s="20"/>
       <c r="H501" s="14"/>
-      <c r="I501" s="25"/>
+      <c r="I501" s="24"/>
     </row>
     <row r="502" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G502" s="20"/>
       <c r="H502" s="14"/>
-      <c r="I502" s="25"/>
+      <c r="I502" s="24"/>
     </row>
     <row r="503" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G503" s="20"/>
       <c r="H503" s="14"/>
-      <c r="I503" s="25"/>
+      <c r="I503" s="24"/>
     </row>
     <row r="504" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G504" s="20"/>
       <c r="H504" s="14"/>
-      <c r="I504" s="25"/>
+      <c r="I504" s="24"/>
     </row>
     <row r="505" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G505" s="20"/>
       <c r="H505" s="14"/>
-      <c r="I505" s="25"/>
+      <c r="I505" s="24"/>
     </row>
     <row r="506" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G506" s="20"/>
       <c r="H506" s="14"/>
-      <c r="I506" s="25"/>
+      <c r="I506" s="24"/>
     </row>
     <row r="507" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G507" s="20"/>
       <c r="H507" s="14"/>
-      <c r="I507" s="25"/>
+      <c r="I507" s="24"/>
     </row>
     <row r="508" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G508" s="20"/>
       <c r="H508" s="14"/>
-      <c r="I508" s="25"/>
+      <c r="I508" s="24"/>
     </row>
     <row r="509" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G509" s="20"/>
       <c r="H509" s="14"/>
-      <c r="I509" s="25"/>
+      <c r="I509" s="24"/>
     </row>
     <row r="510" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G510" s="20"/>
       <c r="H510" s="14"/>
-      <c r="I510" s="25"/>
+      <c r="I510" s="24"/>
     </row>
     <row r="511" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G511" s="20"/>
       <c r="H511" s="14"/>
-      <c r="I511" s="25"/>
+      <c r="I511" s="24"/>
     </row>
     <row r="512" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G512" s="20"/>
       <c r="H512" s="14"/>
-      <c r="I512" s="25"/>
+      <c r="I512" s="24"/>
     </row>
     <row r="513" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G513" s="20"/>
       <c r="H513" s="14"/>
-      <c r="I513" s="25"/>
+      <c r="I513" s="24"/>
     </row>
     <row r="514" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G514" s="20"/>
       <c r="H514" s="14"/>
-      <c r="I514" s="25"/>
+      <c r="I514" s="24"/>
     </row>
     <row r="515" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G515" s="20"/>
       <c r="H515" s="14"/>
-      <c r="I515" s="25"/>
+      <c r="I515" s="24"/>
     </row>
     <row r="516" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G516" s="20"/>
       <c r="H516" s="14"/>
-      <c r="I516" s="25"/>
+      <c r="I516" s="24"/>
     </row>
     <row r="517" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G517" s="20"/>
       <c r="H517" s="14"/>
-      <c r="I517" s="25"/>
+      <c r="I517" s="24"/>
     </row>
     <row r="518" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G518" s="20"/>
       <c r="H518" s="14"/>
-      <c r="I518" s="25"/>
+      <c r="I518" s="24"/>
     </row>
     <row r="519" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G519" s="20"/>
       <c r="H519" s="14"/>
-      <c r="I519" s="25"/>
+      <c r="I519" s="24"/>
     </row>
     <row r="520" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G520" s="20"/>
       <c r="H520" s="14"/>
-      <c r="I520" s="25"/>
+      <c r="I520" s="24"/>
     </row>
     <row r="521" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G521" s="20"/>
       <c r="H521" s="14"/>
-      <c r="I521" s="25"/>
+      <c r="I521" s="24"/>
     </row>
     <row r="522" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G522" s="20"/>
       <c r="H522" s="14"/>
-      <c r="I522" s="25"/>
+      <c r="I522" s="24"/>
     </row>
     <row r="523" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G523" s="20"/>
       <c r="H523" s="14"/>
-      <c r="I523" s="25"/>
+      <c r="I523" s="24"/>
     </row>
     <row r="524" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G524" s="20"/>
       <c r="H524" s="14"/>
-      <c r="I524" s="25"/>
+      <c r="I524" s="24"/>
     </row>
     <row r="525" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G525" s="20"/>
       <c r="H525" s="14"/>
-      <c r="I525" s="25"/>
+      <c r="I525" s="24"/>
     </row>
     <row r="526" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G526" s="20"/>
       <c r="H526" s="14"/>
-      <c r="I526" s="25"/>
+      <c r="I526" s="24"/>
     </row>
     <row r="527" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G527" s="20"/>
       <c r="H527" s="14"/>
-      <c r="I527" s="25"/>
+      <c r="I527" s="24"/>
     </row>
     <row r="528" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G528" s="20"/>
       <c r="H528" s="14"/>
-      <c r="I528" s="25"/>
+      <c r="I528" s="24"/>
     </row>
     <row r="529" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G529" s="20"/>
       <c r="H529" s="14"/>
-      <c r="I529" s="25"/>
+      <c r="I529" s="24"/>
     </row>
     <row r="530" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G530" s="20"/>
       <c r="H530" s="14"/>
-      <c r="I530" s="25"/>
+      <c r="I530" s="24"/>
     </row>
     <row r="531" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G531" s="20"/>
       <c r="H531" s="14"/>
-      <c r="I531" s="25"/>
+      <c r="I531" s="24"/>
     </row>
     <row r="532" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G532" s="20"/>
       <c r="H532" s="14"/>
-      <c r="I532" s="25"/>
+      <c r="I532" s="24"/>
     </row>
     <row r="533" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G533" s="20"/>
       <c r="H533" s="14"/>
-      <c r="I533" s="25"/>
+      <c r="I533" s="24"/>
     </row>
     <row r="534" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G534" s="20"/>
       <c r="H534" s="14"/>
-      <c r="I534" s="25"/>
+      <c r="I534" s="24"/>
     </row>
     <row r="535" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G535" s="20"/>
       <c r="H535" s="14"/>
-      <c r="I535" s="25"/>
+      <c r="I535" s="24"/>
     </row>
     <row r="536" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G536" s="20"/>
       <c r="H536" s="14"/>
-      <c r="I536" s="25"/>
+      <c r="I536" s="24"/>
     </row>
     <row r="537" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G537" s="20"/>
       <c r="H537" s="14"/>
-      <c r="I537" s="25"/>
+      <c r="I537" s="24"/>
     </row>
     <row r="538" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G538" s="20"/>
       <c r="H538" s="14"/>
-      <c r="I538" s="25"/>
+      <c r="I538" s="24"/>
     </row>
     <row r="539" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G539" s="20"/>
       <c r="H539" s="14"/>
-      <c r="I539" s="25"/>
+      <c r="I539" s="24"/>
     </row>
     <row r="540" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G540" s="20"/>
       <c r="H540" s="14"/>
-      <c r="I540" s="25"/>
+      <c r="I540" s="24"/>
     </row>
     <row r="541" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G541" s="20"/>
       <c r="H541" s="14"/>
-      <c r="I541" s="25"/>
+      <c r="I541" s="24"/>
     </row>
     <row r="542" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G542" s="20"/>
       <c r="H542" s="14"/>
-      <c r="I542" s="25"/>
+      <c r="I542" s="24"/>
     </row>
     <row r="543" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G543" s="20"/>
       <c r="H543" s="14"/>
-      <c r="I543" s="25"/>
+      <c r="I543" s="24"/>
     </row>
     <row r="544" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G544" s="20"/>
       <c r="H544" s="14"/>
-      <c r="I544" s="25"/>
+      <c r="I544" s="24"/>
     </row>
     <row r="545" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G545" s="20"/>
       <c r="H545" s="14"/>
-      <c r="I545" s="25"/>
+      <c r="I545" s="24"/>
     </row>
     <row r="546" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G546" s="20"/>
       <c r="H546" s="14"/>
-      <c r="I546" s="25"/>
+      <c r="I546" s="24"/>
     </row>
     <row r="547" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G547" s="20"/>
       <c r="H547" s="14"/>
-      <c r="I547" s="25"/>
+      <c r="I547" s="24"/>
     </row>
     <row r="548" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G548" s="20"/>
       <c r="H548" s="14"/>
-      <c r="I548" s="25"/>
+      <c r="I548" s="24"/>
     </row>
     <row r="549" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G549" s="20"/>
       <c r="H549" s="14"/>
-      <c r="I549" s="25"/>
+      <c r="I549" s="24"/>
     </row>
     <row r="550" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G550" s="20"/>
       <c r="H550" s="14"/>
-      <c r="I550" s="25"/>
+      <c r="I550" s="24"/>
     </row>
     <row r="551" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G551" s="20"/>
       <c r="H551" s="14"/>
-      <c r="I551" s="25"/>
+      <c r="I551" s="24"/>
     </row>
     <row r="552" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G552" s="20"/>
       <c r="H552" s="14"/>
-      <c r="I552" s="25"/>
+      <c r="I552" s="24"/>
     </row>
     <row r="553" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G553" s="20"/>
       <c r="H553" s="14"/>
-      <c r="I553" s="25"/>
+      <c r="I553" s="24"/>
     </row>
     <row r="554" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G554" s="20"/>
       <c r="H554" s="14"/>
-      <c r="I554" s="25"/>
+      <c r="I554" s="24"/>
     </row>
     <row r="555" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G555" s="20"/>
       <c r="H555" s="14"/>
-      <c r="I555" s="25"/>
+      <c r="I555" s="24"/>
     </row>
     <row r="556" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G556" s="20"/>
       <c r="H556" s="14"/>
-      <c r="I556" s="25"/>
+      <c r="I556" s="24"/>
     </row>
     <row r="557" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G557" s="20"/>
       <c r="H557" s="14"/>
-      <c r="I557" s="25"/>
+      <c r="I557" s="24"/>
     </row>
     <row r="558" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G558" s="20"/>
       <c r="H558" s="14"/>
-      <c r="I558" s="25"/>
+      <c r="I558" s="24"/>
     </row>
     <row r="559" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G559" s="20"/>
       <c r="H559" s="14"/>
-      <c r="I559" s="25"/>
+      <c r="I559" s="24"/>
     </row>
     <row r="560" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G560" s="20"/>
       <c r="H560" s="14"/>
-      <c r="I560" s="25"/>
+      <c r="I560" s="24"/>
     </row>
     <row r="561" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G561" s="20"/>
       <c r="H561" s="14"/>
-      <c r="I561" s="25"/>
+      <c r="I561" s="24"/>
     </row>
     <row r="562" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G562" s="20"/>
       <c r="H562" s="14"/>
-      <c r="I562" s="25"/>
+      <c r="I562" s="24"/>
     </row>
     <row r="563" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G563" s="20"/>
       <c r="H563" s="14"/>
-      <c r="I563" s="25"/>
+      <c r="I563" s="24"/>
     </row>
     <row r="564" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G564" s="20"/>
       <c r="H564" s="14"/>
-      <c r="I564" s="25"/>
+      <c r="I564" s="24"/>
     </row>
     <row r="565" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G565" s="20"/>
       <c r="H565" s="14"/>
-      <c r="I565" s="25"/>
+      <c r="I565" s="24"/>
     </row>
     <row r="566" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G566" s="20"/>
       <c r="H566" s="14"/>
-      <c r="I566" s="25"/>
+      <c r="I566" s="24"/>
     </row>
     <row r="567" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G567" s="20"/>
       <c r="H567" s="14"/>
-      <c r="I567" s="25"/>
+      <c r="I567" s="24"/>
     </row>
     <row r="568" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G568" s="20"/>
       <c r="H568" s="14"/>
-      <c r="I568" s="25"/>
+      <c r="I568" s="24"/>
     </row>
     <row r="569" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G569" s="20"/>
       <c r="H569" s="14"/>
-      <c r="I569" s="25"/>
+      <c r="I569" s="24"/>
     </row>
     <row r="570" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G570" s="20"/>
       <c r="H570" s="14"/>
-      <c r="I570" s="25"/>
+      <c r="I570" s="24"/>
     </row>
     <row r="571" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G571" s="20"/>
       <c r="H571" s="14"/>
-      <c r="I571" s="25"/>
+      <c r="I571" s="24"/>
     </row>
     <row r="572" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G572" s="20"/>
       <c r="H572" s="14"/>
-      <c r="I572" s="25"/>
+      <c r="I572" s="24"/>
     </row>
     <row r="573" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G573" s="20"/>
       <c r="H573" s="14"/>
-      <c r="I573" s="25"/>
+      <c r="I573" s="24"/>
     </row>
     <row r="574" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G574" s="20"/>
       <c r="H574" s="14"/>
-      <c r="I574" s="25"/>
+      <c r="I574" s="24"/>
     </row>
     <row r="575" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G575" s="20"/>
       <c r="H575" s="14"/>
-      <c r="I575" s="25"/>
+      <c r="I575" s="24"/>
     </row>
     <row r="576" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G576" s="20"/>
       <c r="H576" s="14"/>
-      <c r="I576" s="25"/>
+      <c r="I576" s="24"/>
     </row>
     <row r="577" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G577" s="20"/>
       <c r="H577" s="14"/>
-      <c r="I577" s="25"/>
+      <c r="I577" s="24"/>
     </row>
     <row r="578" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G578" s="20"/>
       <c r="H578" s="14"/>
-      <c r="I578" s="25"/>
+      <c r="I578" s="24"/>
     </row>
     <row r="579" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G579" s="20"/>
       <c r="H579" s="14"/>
-      <c r="I579" s="25"/>
+      <c r="I579" s="24"/>
     </row>
     <row r="580" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G580" s="20"/>
       <c r="H580" s="14"/>
-      <c r="I580" s="25"/>
+      <c r="I580" s="24"/>
     </row>
     <row r="581" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G581" s="20"/>
       <c r="H581" s="14"/>
-      <c r="I581" s="25"/>
+      <c r="I581" s="24"/>
     </row>
     <row r="582" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G582" s="20"/>
       <c r="H582" s="14"/>
-      <c r="I582" s="25"/>
+      <c r="I582" s="24"/>
     </row>
     <row r="583" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G583" s="20"/>
       <c r="H583" s="14"/>
-      <c r="I583" s="25"/>
+      <c r="I583" s="24"/>
     </row>
     <row r="584" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G584" s="20"/>
       <c r="H584" s="14"/>
-      <c r="I584" s="25"/>
+      <c r="I584" s="24"/>
     </row>
     <row r="585" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G585" s="20"/>
       <c r="H585" s="14"/>
-      <c r="I585" s="25"/>
+      <c r="I585" s="24"/>
     </row>
     <row r="586" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G586" s="20"/>
       <c r="H586" s="14"/>
-      <c r="I586" s="25"/>
+      <c r="I586" s="24"/>
     </row>
     <row r="587" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G587" s="20"/>
       <c r="H587" s="14"/>
-      <c r="I587" s="25"/>
+      <c r="I587" s="24"/>
     </row>
     <row r="588" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G588" s="20"/>
       <c r="H588" s="14"/>
-      <c r="I588" s="25"/>
+      <c r="I588" s="24"/>
     </row>
     <row r="589" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G589" s="20"/>
       <c r="H589" s="14"/>
-      <c r="I589" s="25"/>
+      <c r="I589" s="24"/>
     </row>
     <row r="590" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G590" s="20"/>
       <c r="H590" s="14"/>
-      <c r="I590" s="25"/>
+      <c r="I590" s="24"/>
     </row>
     <row r="591" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G591" s="20"/>
       <c r="H591" s="14"/>
-      <c r="I591" s="25"/>
+      <c r="I591" s="24"/>
     </row>
     <row r="592" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G592" s="20"/>
       <c r="H592" s="14"/>
-      <c r="I592" s="25"/>
+      <c r="I592" s="24"/>
     </row>
     <row r="593" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G593" s="20"/>
       <c r="H593" s="14"/>
-      <c r="I593" s="25"/>
+      <c r="I593" s="24"/>
     </row>
     <row r="594" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G594" s="20"/>
       <c r="H594" s="14"/>
-      <c r="I594" s="25"/>
+      <c r="I594" s="24"/>
     </row>
     <row r="595" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G595" s="20"/>
       <c r="H595" s="14"/>
-      <c r="I595" s="25"/>
+      <c r="I595" s="24"/>
     </row>
     <row r="596" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G596" s="20"/>
       <c r="H596" s="14"/>
-      <c r="I596" s="25"/>
+      <c r="I596" s="24"/>
     </row>
     <row r="597" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G597" s="20"/>
       <c r="H597" s="14"/>
-      <c r="I597" s="25"/>
+      <c r="I597" s="24"/>
     </row>
     <row r="598" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G598" s="20"/>
       <c r="H598" s="14"/>
-      <c r="I598" s="25"/>
+      <c r="I598" s="24"/>
     </row>
     <row r="599" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G599" s="20"/>
       <c r="H599" s="14"/>
-      <c r="I599" s="25"/>
+      <c r="I599" s="24"/>
     </row>
     <row r="600" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G600" s="20"/>
       <c r="H600" s="14"/>
-      <c r="I600" s="25"/>
+      <c r="I600" s="24"/>
     </row>
     <row r="601" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G601" s="20"/>
       <c r="H601" s="14"/>
-      <c r="I601" s="25"/>
+      <c r="I601" s="24"/>
     </row>
     <row r="602" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G602" s="20"/>
       <c r="H602" s="14"/>
-      <c r="I602" s="25"/>
+      <c r="I602" s="24"/>
     </row>
     <row r="603" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G603" s="20"/>
       <c r="H603" s="14"/>
-      <c r="I603" s="25"/>
+      <c r="I603" s="24"/>
     </row>
     <row r="604" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G604" s="20"/>
       <c r="H604" s="14"/>
-      <c r="I604" s="25"/>
+      <c r="I604" s="24"/>
     </row>
     <row r="605" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G605" s="20"/>
       <c r="H605" s="14"/>
-      <c r="I605" s="25"/>
+      <c r="I605" s="24"/>
     </row>
     <row r="606" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G606" s="20"/>
       <c r="H606" s="14"/>
-      <c r="I606" s="25"/>
+      <c r="I606" s="24"/>
     </row>
     <row r="607" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G607" s="20"/>
       <c r="H607" s="14"/>
-      <c r="I607" s="25"/>
+      <c r="I607" s="24"/>
     </row>
     <row r="608" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G608" s="20"/>
       <c r="H608" s="14"/>
-      <c r="I608" s="25"/>
+      <c r="I608" s="24"/>
     </row>
     <row r="609" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G609" s="20"/>
       <c r="H609" s="14"/>
-      <c r="I609" s="25"/>
+      <c r="I609" s="24"/>
     </row>
     <row r="610" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G610" s="20"/>
       <c r="H610" s="14"/>
-      <c r="I610" s="25"/>
+      <c r="I610" s="24"/>
     </row>
     <row r="611" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G611" s="20"/>
       <c r="H611" s="14"/>
-      <c r="I611" s="25"/>
+      <c r="I611" s="24"/>
     </row>
     <row r="612" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G612" s="20"/>
       <c r="H612" s="14"/>
-      <c r="I612" s="25"/>
+      <c r="I612" s="24"/>
     </row>
     <row r="613" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G613" s="20"/>
       <c r="H613" s="14"/>
-      <c r="I613" s="25"/>
+      <c r="I613" s="24"/>
     </row>
     <row r="614" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G614" s="20"/>
       <c r="H614" s="14"/>
-      <c r="I614" s="25"/>
+      <c r="I614" s="24"/>
     </row>
     <row r="615" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G615" s="20"/>
       <c r="H615" s="14"/>
-      <c r="I615" s="25"/>
+      <c r="I615" s="24"/>
     </row>
     <row r="616" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G616" s="20"/>
       <c r="H616" s="14"/>
-      <c r="I616" s="25"/>
+      <c r="I616" s="24"/>
     </row>
     <row r="617" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G617" s="20"/>
       <c r="H617" s="14"/>
-      <c r="I617" s="25"/>
+      <c r="I617" s="24"/>
     </row>
     <row r="618" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G618" s="20"/>
       <c r="H618" s="14"/>
-      <c r="I618" s="25"/>
+      <c r="I618" s="24"/>
     </row>
     <row r="619" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G619" s="20"/>
       <c r="H619" s="14"/>
-      <c r="I619" s="25"/>
+      <c r="I619" s="24"/>
     </row>
     <row r="620" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G620" s="20"/>
       <c r="H620" s="14"/>
-      <c r="I620" s="25"/>
+      <c r="I620" s="24"/>
     </row>
     <row r="621" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G621" s="20"/>
       <c r="H621" s="14"/>
-      <c r="I621" s="25"/>
+      <c r="I621" s="24"/>
     </row>
     <row r="622" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G622" s="20"/>
       <c r="H622" s="14"/>
-      <c r="I622" s="25"/>
+      <c r="I622" s="24"/>
     </row>
     <row r="623" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G623" s="20"/>
       <c r="H623" s="14"/>
-      <c r="I623" s="25"/>
+      <c r="I623" s="24"/>
     </row>
     <row r="624" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G624" s="20"/>
       <c r="H624" s="14"/>
-      <c r="I624" s="25"/>
+      <c r="I624" s="24"/>
     </row>
     <row r="625" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G625" s="20"/>
       <c r="H625" s="14"/>
-      <c r="I625" s="25"/>
+      <c r="I625" s="24"/>
     </row>
     <row r="626" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G626" s="20"/>
       <c r="H626" s="14"/>
-      <c r="I626" s="25"/>
+      <c r="I626" s="24"/>
     </row>
     <row r="627" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G627" s="20"/>
       <c r="H627" s="14"/>
-      <c r="I627" s="25"/>
+      <c r="I627" s="24"/>
     </row>
     <row r="628" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G628" s="20"/>
       <c r="H628" s="14"/>
-      <c r="I628" s="25"/>
+      <c r="I628" s="24"/>
     </row>
     <row r="629" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G629" s="20"/>
       <c r="H629" s="14"/>
-      <c r="I629" s="25"/>
+      <c r="I629" s="24"/>
     </row>
     <row r="630" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G630" s="20"/>
       <c r="H630" s="14"/>
-      <c r="I630" s="25"/>
+      <c r="I630" s="24"/>
     </row>
     <row r="631" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G631" s="20"/>
       <c r="H631" s="14"/>
-      <c r="I631" s="25"/>
+      <c r="I631" s="24"/>
     </row>
     <row r="632" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G632" s="20"/>
       <c r="H632" s="14"/>
-      <c r="I632" s="25"/>
+      <c r="I632" s="24"/>
     </row>
     <row r="633" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G633" s="20"/>
       <c r="H633" s="14"/>
-      <c r="I633" s="25"/>
+      <c r="I633" s="24"/>
     </row>
     <row r="634" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G634" s="20"/>
       <c r="H634" s="14"/>
-      <c r="I634" s="25"/>
+      <c r="I634" s="24"/>
     </row>
     <row r="635" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G635" s="20"/>
       <c r="H635" s="14"/>
-      <c r="I635" s="25"/>
+      <c r="I635" s="24"/>
     </row>
     <row r="636" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G636" s="20"/>
       <c r="H636" s="14"/>
-      <c r="I636" s="25"/>
+      <c r="I636" s="24"/>
     </row>
     <row r="637" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G637" s="20"/>
       <c r="H637" s="14"/>
-      <c r="I637" s="25"/>
+      <c r="I637" s="24"/>
     </row>
     <row r="638" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G638" s="20"/>
       <c r="H638" s="14"/>
-      <c r="I638" s="25"/>
+      <c r="I638" s="24"/>
     </row>
     <row r="639" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G639" s="20"/>
       <c r="H639" s="14"/>
-      <c r="I639" s="25"/>
+      <c r="I639" s="24"/>
     </row>
     <row r="640" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G640" s="20"/>
       <c r="H640" s="14"/>
-      <c r="I640" s="25"/>
+      <c r="I640" s="24"/>
     </row>
     <row r="641" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G641" s="20"/>
       <c r="H641" s="14"/>
-      <c r="I641" s="25"/>
+      <c r="I641" s="24"/>
     </row>
     <row r="642" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G642" s="20"/>
       <c r="H642" s="14"/>
-      <c r="I642" s="25"/>
+      <c r="I642" s="24"/>
     </row>
     <row r="643" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G643" s="20"/>
       <c r="H643" s="14"/>
-      <c r="I643" s="25"/>
+      <c r="I643" s="24"/>
     </row>
     <row r="644" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G644" s="20"/>
       <c r="H644" s="14"/>
-      <c r="I644" s="25"/>
+      <c r="I644" s="24"/>
     </row>
     <row r="645" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G645" s="20"/>
       <c r="H645" s="14"/>
-      <c r="I645" s="25"/>
+      <c r="I645" s="24"/>
     </row>
     <row r="646" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G646" s="20"/>
       <c r="H646" s="14"/>
-      <c r="I646" s="25"/>
+      <c r="I646" s="24"/>
     </row>
     <row r="647" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G647" s="20"/>
       <c r="H647" s="14"/>
-      <c r="I647" s="25"/>
+      <c r="I647" s="24"/>
     </row>
     <row r="648" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G648" s="20"/>
       <c r="H648" s="14"/>
-      <c r="I648" s="25"/>
+      <c r="I648" s="24"/>
     </row>
     <row r="649" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G649" s="20"/>
       <c r="H649" s="14"/>
-      <c r="I649" s="25"/>
+      <c r="I649" s="24"/>
     </row>
     <row r="650" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G650" s="20"/>
       <c r="H650" s="14"/>
-      <c r="I650" s="25"/>
+      <c r="I650" s="24"/>
     </row>
     <row r="651" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G651" s="20"/>
       <c r="H651" s="14"/>
-      <c r="I651" s="25"/>
+      <c r="I651" s="24"/>
     </row>
     <row r="652" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G652" s="20"/>
       <c r="H652" s="14"/>
-      <c r="I652" s="25"/>
+      <c r="I652" s="24"/>
     </row>
     <row r="653" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G653" s="20"/>
       <c r="H653" s="14"/>
-      <c r="I653" s="25"/>
+      <c r="I653" s="24"/>
     </row>
     <row r="654" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G654" s="20"/>
       <c r="H654" s="14"/>
-      <c r="I654" s="25"/>
+      <c r="I654" s="24"/>
     </row>
     <row r="655" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G655" s="20"/>
       <c r="H655" s="14"/>
-      <c r="I655" s="25"/>
+      <c r="I655" s="24"/>
     </row>
     <row r="656" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G656" s="20"/>
       <c r="H656" s="14"/>
-      <c r="I656" s="25"/>
+      <c r="I656" s="24"/>
     </row>
     <row r="657" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G657" s="20"/>
       <c r="H657" s="14"/>
-      <c r="I657" s="25"/>
+      <c r="I657" s="24"/>
     </row>
     <row r="658" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G658" s="20"/>
       <c r="H658" s="14"/>
-      <c r="I658" s="25"/>
+      <c r="I658" s="24"/>
     </row>
     <row r="659" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G659" s="20"/>
       <c r="H659" s="14"/>
-      <c r="I659" s="25"/>
+      <c r="I659" s="24"/>
     </row>
     <row r="660" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G660" s="20"/>
       <c r="H660" s="14"/>
-      <c r="I660" s="25"/>
+      <c r="I660" s="24"/>
     </row>
     <row r="661" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G661" s="20"/>
       <c r="H661" s="14"/>
-      <c r="I661" s="25"/>
+      <c r="I661" s="24"/>
     </row>
     <row r="662" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G662" s="20"/>
       <c r="H662" s="14"/>
-      <c r="I662" s="25"/>
+      <c r="I662" s="24"/>
     </row>
     <row r="663" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G663" s="20"/>
       <c r="H663" s="14"/>
-      <c r="I663" s="25"/>
+      <c r="I663" s="24"/>
     </row>
     <row r="664" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G664" s="20"/>
       <c r="H664" s="14"/>
-      <c r="I664" s="25"/>
+      <c r="I664" s="24"/>
     </row>
     <row r="665" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G665" s="20"/>
       <c r="H665" s="14"/>
-      <c r="I665" s="25"/>
+      <c r="I665" s="24"/>
     </row>
     <row r="666" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G666" s="20"/>
       <c r="H666" s="14"/>
-      <c r="I666" s="25"/>
+      <c r="I666" s="24"/>
     </row>
     <row r="667" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G667" s="20"/>
       <c r="H667" s="14"/>
-      <c r="I667" s="25"/>
+      <c r="I667" s="24"/>
     </row>
     <row r="668" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G668" s="20"/>
       <c r="H668" s="14"/>
-      <c r="I668" s="25"/>
+      <c r="I668" s="24"/>
     </row>
     <row r="669" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G669" s="20"/>
       <c r="H669" s="14"/>
-      <c r="I669" s="25"/>
+      <c r="I669" s="24"/>
     </row>
     <row r="670" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G670" s="20"/>
       <c r="H670" s="14"/>
-      <c r="I670" s="25"/>
+      <c r="I670" s="24"/>
     </row>
     <row r="671" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G671" s="20"/>
       <c r="H671" s="14"/>
-      <c r="I671" s="25"/>
+      <c r="I671" s="24"/>
     </row>
     <row r="672" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G672" s="20"/>
       <c r="H672" s="14"/>
-      <c r="I672" s="25"/>
+      <c r="I672" s="24"/>
     </row>
     <row r="673" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G673" s="20"/>
       <c r="H673" s="14"/>
-      <c r="I673" s="25"/>
+      <c r="I673" s="24"/>
     </row>
     <row r="674" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G674" s="20"/>
       <c r="H674" s="14"/>
-      <c r="I674" s="25"/>
+      <c r="I674" s="24"/>
     </row>
     <row r="675" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G675" s="20"/>
       <c r="H675" s="14"/>
-      <c r="I675" s="25"/>
+      <c r="I675" s="24"/>
     </row>
     <row r="676" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G676" s="20"/>
       <c r="H676" s="14"/>
-      <c r="I676" s="25"/>
+      <c r="I676" s="24"/>
     </row>
     <row r="677" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G677" s="20"/>
       <c r="H677" s="14"/>
-      <c r="I677" s="25"/>
+      <c r="I677" s="24"/>
     </row>
     <row r="678" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G678" s="20"/>
       <c r="H678" s="14"/>
-      <c r="I678" s="25"/>
+      <c r="I678" s="24"/>
     </row>
     <row r="679" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G679" s="20"/>
       <c r="H679" s="14"/>
-      <c r="I679" s="25"/>
+      <c r="I679" s="24"/>
     </row>
     <row r="680" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G680" s="20"/>
       <c r="H680" s="14"/>
-      <c r="I680" s="25"/>
+      <c r="I680" s="24"/>
     </row>
     <row r="681" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G681" s="20"/>
       <c r="H681" s="14"/>
-      <c r="I681" s="25"/>
+      <c r="I681" s="24"/>
     </row>
     <row r="682" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G682" s="20"/>
       <c r="H682" s="14"/>
-      <c r="I682" s="25"/>
+      <c r="I682" s="24"/>
     </row>
     <row r="683" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G683" s="20"/>
       <c r="H683" s="14"/>
-      <c r="I683" s="25"/>
+      <c r="I683" s="24"/>
     </row>
     <row r="684" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G684" s="20"/>
       <c r="H684" s="14"/>
-      <c r="I684" s="25"/>
+      <c r="I684" s="24"/>
     </row>
     <row r="685" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G685" s="20"/>
       <c r="H685" s="14"/>
-      <c r="I685" s="25"/>
+      <c r="I685" s="24"/>
     </row>
     <row r="686" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G686" s="20"/>
       <c r="H686" s="14"/>
-      <c r="I686" s="25"/>
+      <c r="I686" s="24"/>
     </row>
     <row r="687" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G687" s="20"/>
       <c r="H687" s="14"/>
-      <c r="I687" s="25"/>
+      <c r="I687" s="24"/>
     </row>
     <row r="688" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G688" s="20"/>
       <c r="H688" s="14"/>
-      <c r="I688" s="25"/>
+      <c r="I688" s="24"/>
     </row>
     <row r="689" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G689" s="20"/>
       <c r="H689" s="14"/>
-      <c r="I689" s="25"/>
+      <c r="I689" s="24"/>
     </row>
     <row r="690" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G690" s="20"/>
       <c r="H690" s="14"/>
-      <c r="I690" s="25"/>
+      <c r="I690" s="24"/>
     </row>
     <row r="691" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G691" s="20"/>
       <c r="H691" s="14"/>
-      <c r="I691" s="25"/>
+      <c r="I691" s="24"/>
     </row>
     <row r="692" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G692" s="20"/>
       <c r="H692" s="14"/>
-      <c r="I692" s="25"/>
+      <c r="I692" s="24"/>
     </row>
     <row r="693" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G693" s="20"/>
       <c r="H693" s="14"/>
-      <c r="I693" s="25"/>
+      <c r="I693" s="24"/>
     </row>
     <row r="694" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G694" s="20"/>
       <c r="H694" s="14"/>
-      <c r="I694" s="25"/>
+      <c r="I694" s="24"/>
     </row>
     <row r="695" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G695" s="20"/>
       <c r="H695" s="14"/>
-      <c r="I695" s="25"/>
+      <c r="I695" s="24"/>
     </row>
     <row r="696" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G696" s="20"/>
       <c r="H696" s="14"/>
-      <c r="I696" s="25"/>
+      <c r="I696" s="24"/>
     </row>
     <row r="697" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G697" s="20"/>
       <c r="H697" s="14"/>
-      <c r="I697" s="25"/>
+      <c r="I697" s="24"/>
     </row>
     <row r="698" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G698" s="20"/>
       <c r="H698" s="14"/>
-      <c r="I698" s="25"/>
+      <c r="I698" s="24"/>
     </row>
     <row r="699" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G699" s="20"/>
       <c r="H699" s="14"/>
-      <c r="I699" s="25"/>
+      <c r="I699" s="24"/>
     </row>
     <row r="700" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G700" s="20"/>
       <c r="H700" s="14"/>
-      <c r="I700" s="25"/>
+      <c r="I700" s="24"/>
     </row>
     <row r="701" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G701" s="20"/>
       <c r="H701" s="14"/>
-      <c r="I701" s="25"/>
+      <c r="I701" s="24"/>
     </row>
     <row r="702" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G702" s="20"/>
       <c r="H702" s="14"/>
-      <c r="I702" s="25"/>
+      <c r="I702" s="24"/>
     </row>
     <row r="703" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G703" s="20"/>
       <c r="H703" s="14"/>
-      <c r="I703" s="25"/>
+      <c r="I703" s="24"/>
     </row>
     <row r="704" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G704" s="20"/>
       <c r="H704" s="14"/>
-      <c r="I704" s="25"/>
+      <c r="I704" s="24"/>
     </row>
     <row r="705" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G705" s="20"/>
       <c r="H705" s="14"/>
-      <c r="I705" s="25"/>
+      <c r="I705" s="24"/>
     </row>
     <row r="706" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G706" s="20"/>
       <c r="H706" s="14"/>
-      <c r="I706" s="25"/>
+      <c r="I706" s="24"/>
     </row>
     <row r="707" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G707" s="20"/>
       <c r="H707" s="14"/>
-      <c r="I707" s="25"/>
+      <c r="I707" s="24"/>
     </row>
     <row r="708" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G708" s="20"/>
       <c r="H708" s="14"/>
-      <c r="I708" s="25"/>
+      <c r="I708" s="24"/>
     </row>
     <row r="709" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G709" s="20"/>
       <c r="H709" s="14"/>
-      <c r="I709" s="25"/>
+      <c r="I709" s="24"/>
     </row>
     <row r="710" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G710" s="20"/>
       <c r="H710" s="14"/>
-      <c r="I710" s="25"/>
+      <c r="I710" s="24"/>
     </row>
     <row r="711" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G711" s="20"/>
       <c r="H711" s="14"/>
-      <c r="I711" s="25"/>
+      <c r="I711" s="24"/>
     </row>
     <row r="712" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G712" s="20"/>
       <c r="H712" s="14"/>
-      <c r="I712" s="25"/>
+      <c r="I712" s="24"/>
     </row>
     <row r="713" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G713" s="20"/>
       <c r="H713" s="14"/>
-      <c r="I713" s="25"/>
+      <c r="I713" s="24"/>
     </row>
     <row r="714" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G714" s="20"/>
       <c r="H714" s="14"/>
-      <c r="I714" s="25"/>
+      <c r="I714" s="24"/>
     </row>
     <row r="715" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G715" s="20"/>
       <c r="H715" s="14"/>
-      <c r="I715" s="25"/>
+      <c r="I715" s="24"/>
     </row>
     <row r="716" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G716" s="20"/>
       <c r="H716" s="14"/>
-      <c r="I716" s="25"/>
+      <c r="I716" s="24"/>
     </row>
     <row r="717" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G717" s="20"/>
       <c r="H717" s="14"/>
-      <c r="I717" s="25"/>
+      <c r="I717" s="24"/>
     </row>
     <row r="718" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G718" s="20"/>
       <c r="H718" s="14"/>
-      <c r="I718" s="25"/>
+      <c r="I718" s="24"/>
     </row>
     <row r="719" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G719" s="20"/>
       <c r="H719" s="14"/>
-      <c r="I719" s="25"/>
+      <c r="I719" s="24"/>
     </row>
     <row r="720" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G720" s="20"/>
       <c r="H720" s="14"/>
-      <c r="I720" s="25"/>
+      <c r="I720" s="24"/>
     </row>
     <row r="721" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G721" s="20"/>
       <c r="H721" s="14"/>
-      <c r="I721" s="25"/>
+      <c r="I721" s="24"/>
     </row>
     <row r="722" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G722" s="20"/>
       <c r="H722" s="14"/>
-      <c r="I722" s="25"/>
+      <c r="I722" s="24"/>
     </row>
     <row r="723" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G723" s="20"/>
       <c r="H723" s="14"/>
-      <c r="I723" s="25"/>
+      <c r="I723" s="24"/>
     </row>
     <row r="724" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G724" s="20"/>
       <c r="H724" s="14"/>
-      <c r="I724" s="25"/>
+      <c r="I724" s="24"/>
     </row>
     <row r="725" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G725" s="20"/>
       <c r="H725" s="14"/>
-      <c r="I725" s="25"/>
+      <c r="I725" s="24"/>
     </row>
     <row r="726" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G726" s="20"/>
       <c r="H726" s="14"/>
-      <c r="I726" s="25"/>
+      <c r="I726" s="24"/>
     </row>
     <row r="727" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G727" s="20"/>
       <c r="H727" s="14"/>
-      <c r="I727" s="25"/>
+      <c r="I727" s="24"/>
     </row>
     <row r="728" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G728" s="20"/>
       <c r="H728" s="14"/>
-      <c r="I728" s="25"/>
+      <c r="I728" s="24"/>
     </row>
     <row r="729" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G729" s="20"/>
       <c r="H729" s="14"/>
-      <c r="I729" s="25"/>
+      <c r="I729" s="24"/>
     </row>
     <row r="730" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G730" s="20"/>
       <c r="H730" s="14"/>
-      <c r="I730" s="25"/>
+      <c r="I730" s="24"/>
     </row>
     <row r="731" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G731" s="20"/>
       <c r="H731" s="14"/>
-      <c r="I731" s="25"/>
+      <c r="I731" s="24"/>
     </row>
     <row r="732" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G732" s="20"/>
       <c r="H732" s="14"/>
-      <c r="I732" s="25"/>
+      <c r="I732" s="24"/>
     </row>
     <row r="733" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G733" s="20"/>
       <c r="H733" s="14"/>
-      <c r="I733" s="25"/>
+      <c r="I733" s="24"/>
     </row>
     <row r="734" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G734" s="20"/>
       <c r="H734" s="14"/>
-      <c r="I734" s="25"/>
+      <c r="I734" s="24"/>
     </row>
     <row r="735" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G735" s="20"/>
       <c r="H735" s="14"/>
-      <c r="I735" s="25"/>
+      <c r="I735" s="24"/>
     </row>
     <row r="736" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G736" s="20"/>
       <c r="H736" s="14"/>
-      <c r="I736" s="25"/>
+      <c r="I736" s="24"/>
     </row>
     <row r="737" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G737" s="20"/>
       <c r="H737" s="14"/>
-      <c r="I737" s="25"/>
+      <c r="I737" s="24"/>
     </row>
     <row r="738" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G738" s="20"/>
       <c r="H738" s="14"/>
-      <c r="I738" s="25"/>
+      <c r="I738" s="24"/>
     </row>
     <row r="739" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G739" s="20"/>
       <c r="H739" s="14"/>
-      <c r="I739" s="25"/>
+      <c r="I739" s="24"/>
     </row>
     <row r="740" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G740" s="20"/>
       <c r="H740" s="14"/>
-      <c r="I740" s="25"/>
+      <c r="I740" s="24"/>
     </row>
     <row r="741" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G741" s="20"/>
       <c r="H741" s="14"/>
-      <c r="I741" s="25"/>
+      <c r="I741" s="24"/>
     </row>
     <row r="742" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G742" s="20"/>
       <c r="H742" s="14"/>
-      <c r="I742" s="25"/>
+      <c r="I742" s="24"/>
     </row>
     <row r="743" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G743" s="20"/>
       <c r="H743" s="14"/>
-      <c r="I743" s="25"/>
+      <c r="I743" s="24"/>
     </row>
     <row r="744" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G744" s="20"/>
       <c r="H744" s="14"/>
-      <c r="I744" s="25"/>
+      <c r="I744" s="24"/>
     </row>
     <row r="745" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G745" s="20"/>
       <c r="H745" s="14"/>
-      <c r="I745" s="25"/>
+      <c r="I745" s="24"/>
     </row>
     <row r="746" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G746" s="20"/>
       <c r="H746" s="14"/>
-      <c r="I746" s="25"/>
+      <c r="I746" s="24"/>
     </row>
     <row r="747" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G747" s="20"/>
       <c r="H747" s="14"/>
-      <c r="I747" s="25"/>
+      <c r="I747" s="24"/>
     </row>
     <row r="748" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G748" s="20"/>
       <c r="H748" s="14"/>
-      <c r="I748" s="25"/>
+      <c r="I748" s="24"/>
     </row>
     <row r="749" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G749" s="20"/>
       <c r="H749" s="14"/>
-      <c r="I749" s="25"/>
+      <c r="I749" s="24"/>
     </row>
     <row r="750" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G750" s="20"/>
       <c r="H750" s="14"/>
-      <c r="I750" s="25"/>
+      <c r="I750" s="24"/>
     </row>
     <row r="751" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G751" s="20"/>
       <c r="H751" s="14"/>
-      <c r="I751" s="25"/>
+      <c r="I751" s="24"/>
     </row>
     <row r="752" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G752" s="20"/>
       <c r="H752" s="14"/>
-      <c r="I752" s="25"/>
+      <c r="I752" s="24"/>
     </row>
     <row r="753" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G753" s="20"/>
       <c r="H753" s="14"/>
-      <c r="I753" s="25"/>
+      <c r="I753" s="24"/>
     </row>
     <row r="754" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G754" s="20"/>
       <c r="H754" s="14"/>
-      <c r="I754" s="25"/>
+      <c r="I754" s="24"/>
     </row>
     <row r="755" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G755" s="20"/>
       <c r="H755" s="14"/>
-      <c r="I755" s="25"/>
+      <c r="I755" s="24"/>
     </row>
     <row r="756" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G756" s="20"/>
       <c r="H756" s="14"/>
-      <c r="I756" s="25"/>
+      <c r="I756" s="24"/>
     </row>
     <row r="757" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G757" s="20"/>
       <c r="H757" s="14"/>
-      <c r="I757" s="25"/>
+      <c r="I757" s="24"/>
     </row>
     <row r="758" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G758" s="20"/>
       <c r="H758" s="14"/>
-      <c r="I758" s="25"/>
+      <c r="I758" s="24"/>
     </row>
     <row r="759" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G759" s="20"/>
       <c r="H759" s="14"/>
-      <c r="I759" s="25"/>
+      <c r="I759" s="24"/>
     </row>
     <row r="760" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G760" s="20"/>
       <c r="H760" s="14"/>
-      <c r="I760" s="25"/>
+      <c r="I760" s="24"/>
     </row>
     <row r="761" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G761" s="20"/>
       <c r="H761" s="14"/>
-      <c r="I761" s="25"/>
+      <c r="I761" s="24"/>
     </row>
     <row r="762" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G762" s="20"/>
       <c r="H762" s="14"/>
-      <c r="I762" s="25"/>
+      <c r="I762" s="24"/>
     </row>
     <row r="763" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G763" s="20"/>
       <c r="H763" s="14"/>
-      <c r="I763" s="25"/>
+      <c r="I763" s="24"/>
     </row>
     <row r="764" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G764" s="20"/>
       <c r="H764" s="14"/>
-      <c r="I764" s="25"/>
+      <c r="I764" s="24"/>
     </row>
     <row r="765" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G765" s="20"/>
       <c r="H765" s="14"/>
-      <c r="I765" s="25"/>
+      <c r="I765" s="24"/>
     </row>
     <row r="766" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G766" s="20"/>
       <c r="H766" s="14"/>
-      <c r="I766" s="25"/>
+      <c r="I766" s="24"/>
     </row>
     <row r="767" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G767" s="20"/>
       <c r="H767" s="14"/>
-      <c r="I767" s="25"/>
+      <c r="I767" s="24"/>
     </row>
     <row r="768" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G768" s="20"/>
       <c r="H768" s="14"/>
-      <c r="I768" s="25"/>
+      <c r="I768" s="24"/>
     </row>
     <row r="769" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G769" s="20"/>
       <c r="H769" s="14"/>
-      <c r="I769" s="25"/>
+      <c r="I769" s="24"/>
     </row>
     <row r="770" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G770" s="20"/>
       <c r="H770" s="14"/>
-      <c r="I770" s="25"/>
+      <c r="I770" s="24"/>
     </row>
     <row r="771" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G771" s="20"/>
       <c r="H771" s="14"/>
-      <c r="I771" s="25"/>
+      <c r="I771" s="24"/>
     </row>
     <row r="772" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G772" s="20"/>
       <c r="H772" s="14"/>
-      <c r="I772" s="25"/>
+      <c r="I772" s="24"/>
     </row>
     <row r="773" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G773" s="20"/>
       <c r="H773" s="14"/>
-      <c r="I773" s="25"/>
+      <c r="I773" s="24"/>
     </row>
     <row r="774" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G774" s="20"/>
       <c r="H774" s="14"/>
-      <c r="I774" s="25"/>
+      <c r="I774" s="24"/>
     </row>
     <row r="775" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G775" s="20"/>
       <c r="H775" s="14"/>
-      <c r="I775" s="25"/>
+      <c r="I775" s="24"/>
     </row>
     <row r="776" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G776" s="20"/>
       <c r="H776" s="14"/>
-      <c r="I776" s="25"/>
+      <c r="I776" s="24"/>
     </row>
     <row r="777" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G777" s="20"/>
       <c r="H777" s="14"/>
-      <c r="I777" s="25"/>
+      <c r="I777" s="24"/>
     </row>
     <row r="778" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G778" s="20"/>
       <c r="H778" s="14"/>
-      <c r="I778" s="25"/>
+      <c r="I778" s="24"/>
     </row>
     <row r="779" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G779" s="20"/>
       <c r="H779" s="14"/>
-      <c r="I779" s="25"/>
+      <c r="I779" s="24"/>
     </row>
     <row r="780" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G780" s="20"/>
       <c r="H780" s="14"/>
-      <c r="I780" s="25"/>
+      <c r="I780" s="24"/>
     </row>
     <row r="781" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G781" s="20"/>
       <c r="H781" s="14"/>
-      <c r="I781" s="25"/>
+      <c r="I781" s="24"/>
     </row>
     <row r="782" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G782" s="20"/>
       <c r="H782" s="14"/>
-      <c r="I782" s="25"/>
+      <c r="I782" s="24"/>
     </row>
     <row r="783" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G783" s="20"/>
       <c r="H783" s="14"/>
-      <c r="I783" s="25"/>
+      <c r="I783" s="24"/>
     </row>
     <row r="784" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G784" s="20"/>
       <c r="H784" s="14"/>
-      <c r="I784" s="25"/>
+      <c r="I784" s="24"/>
     </row>
     <row r="785" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G785" s="20"/>
       <c r="H785" s="14"/>
-      <c r="I785" s="25"/>
+      <c r="I785" s="24"/>
     </row>
     <row r="786" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G786" s="20"/>
       <c r="H786" s="14"/>
-      <c r="I786" s="25"/>
+      <c r="I786" s="24"/>
     </row>
     <row r="787" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G787" s="20"/>
       <c r="H787" s="14"/>
-      <c r="I787" s="25"/>
+      <c r="I787" s="24"/>
     </row>
     <row r="788" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G788" s="20"/>
       <c r="H788" s="14"/>
-      <c r="I788" s="25"/>
+      <c r="I788" s="24"/>
     </row>
     <row r="789" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G789" s="20"/>
       <c r="H789" s="14"/>
-      <c r="I789" s="25"/>
+      <c r="I789" s="24"/>
     </row>
     <row r="790" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G790" s="20"/>
       <c r="H790" s="14"/>
-      <c r="I790" s="25"/>
+      <c r="I790" s="24"/>
     </row>
     <row r="791" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G791" s="20"/>
       <c r="H791" s="14"/>
-      <c r="I791" s="25"/>
+      <c r="I791" s="24"/>
     </row>
     <row r="792" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G792" s="20"/>
       <c r="H792" s="14"/>
-      <c r="I792" s="25"/>
+      <c r="I792" s="24"/>
     </row>
     <row r="793" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G793" s="20"/>
       <c r="H793" s="14"/>
-      <c r="I793" s="25"/>
+      <c r="I793" s="24"/>
     </row>
     <row r="794" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G794" s="20"/>
       <c r="H794" s="14"/>
-      <c r="I794" s="25"/>
+      <c r="I794" s="24"/>
     </row>
     <row r="795" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G795" s="20"/>
       <c r="H795" s="14"/>
-      <c r="I795" s="25"/>
+      <c r="I795" s="24"/>
     </row>
     <row r="796" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G796" s="20"/>
       <c r="H796" s="14"/>
-      <c r="I796" s="25"/>
+      <c r="I796" s="24"/>
     </row>
     <row r="797" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G797" s="20"/>
       <c r="H797" s="14"/>
-      <c r="I797" s="25"/>
+      <c r="I797" s="24"/>
     </row>
     <row r="798" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G798" s="20"/>
       <c r="H798" s="14"/>
-      <c r="I798" s="25"/>
+      <c r="I798" s="24"/>
     </row>
     <row r="799" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G799" s="20"/>
       <c r="H799" s="14"/>
-      <c r="I799" s="25"/>
+      <c r="I799" s="24"/>
     </row>
     <row r="800" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G800" s="20"/>
       <c r="H800" s="14"/>
-      <c r="I800" s="25"/>
+      <c r="I800" s="24"/>
     </row>
     <row r="801" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G801" s="20"/>
       <c r="H801" s="14"/>
-      <c r="I801" s="25"/>
+      <c r="I801" s="24"/>
     </row>
     <row r="802" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G802" s="20"/>
       <c r="H802" s="14"/>
-      <c r="I802" s="25"/>
+      <c r="I802" s="24"/>
     </row>
     <row r="803" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G803" s="20"/>
       <c r="H803" s="14"/>
-      <c r="I803" s="25"/>
+      <c r="I803" s="24"/>
     </row>
     <row r="804" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G804" s="20"/>
       <c r="H804" s="14"/>
-      <c r="I804" s="25"/>
+      <c r="I804" s="24"/>
     </row>
     <row r="805" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G805" s="20"/>
       <c r="H805" s="14"/>
-      <c r="I805" s="25"/>
+      <c r="I805" s="24"/>
     </row>
     <row r="806" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G806" s="20"/>
       <c r="H806" s="14"/>
-      <c r="I806" s="25"/>
+      <c r="I806" s="24"/>
     </row>
     <row r="807" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G807" s="20"/>
       <c r="H807" s="14"/>
-      <c r="I807" s="25"/>
+      <c r="I807" s="24"/>
     </row>
     <row r="808" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G808" s="20"/>
       <c r="H808" s="14"/>
-      <c r="I808" s="25"/>
+      <c r="I808" s="24"/>
     </row>
     <row r="809" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G809" s="20"/>
       <c r="H809" s="14"/>
-      <c r="I809" s="25"/>
+      <c r="I809" s="24"/>
     </row>
     <row r="810" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G810" s="20"/>
       <c r="H810" s="14"/>
-      <c r="I810" s="25"/>
+      <c r="I810" s="24"/>
     </row>
     <row r="811" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G811" s="20"/>
       <c r="H811" s="14"/>
-      <c r="I811" s="25"/>
+      <c r="I811" s="24"/>
     </row>
     <row r="812" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G812" s="20"/>
       <c r="H812" s="14"/>
-      <c r="I812" s="25"/>
+      <c r="I812" s="24"/>
     </row>
     <row r="813" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G813" s="20"/>
       <c r="H813" s="14"/>
-      <c r="I813" s="25"/>
+      <c r="I813" s="24"/>
     </row>
     <row r="814" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G814" s="20"/>
       <c r="H814" s="14"/>
-      <c r="I814" s="25"/>
+      <c r="I814" s="24"/>
     </row>
     <row r="815" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G815" s="20"/>
       <c r="H815" s="14"/>
-      <c r="I815" s="25"/>
+      <c r="I815" s="24"/>
     </row>
     <row r="816" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G816" s="20"/>
       <c r="H816" s="14"/>
-      <c r="I816" s="25"/>
+      <c r="I816" s="24"/>
     </row>
     <row r="817" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G817" s="20"/>
       <c r="H817" s="14"/>
-      <c r="I817" s="25"/>
+      <c r="I817" s="24"/>
     </row>
     <row r="818" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G818" s="20"/>
       <c r="H818" s="14"/>
-      <c r="I818" s="25"/>
+      <c r="I818" s="24"/>
     </row>
     <row r="819" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G819" s="20"/>
       <c r="H819" s="14"/>
-      <c r="I819" s="25"/>
+      <c r="I819" s="24"/>
     </row>
     <row r="820" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G820" s="20"/>
       <c r="H820" s="14"/>
-      <c r="I820" s="25"/>
+      <c r="I820" s="24"/>
     </row>
     <row r="821" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G821" s="20"/>
       <c r="H821" s="14"/>
-      <c r="I821" s="25"/>
+      <c r="I821" s="24"/>
     </row>
     <row r="822" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G822" s="20"/>
       <c r="H822" s="14"/>
-      <c r="I822" s="25"/>
+      <c r="I822" s="24"/>
     </row>
     <row r="823" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G823" s="20"/>
       <c r="H823" s="14"/>
-      <c r="I823" s="25"/>
+      <c r="I823" s="24"/>
     </row>
     <row r="824" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G824" s="20"/>
       <c r="H824" s="14"/>
-      <c r="I824" s="25"/>
+      <c r="I824" s="24"/>
     </row>
     <row r="825" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G825" s="20"/>
       <c r="H825" s="14"/>
-      <c r="I825" s="25"/>
+      <c r="I825" s="24"/>
     </row>
     <row r="826" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G826" s="20"/>
       <c r="H826" s="14"/>
-      <c r="I826" s="25"/>
+      <c r="I826" s="24"/>
     </row>
     <row r="827" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G827" s="20"/>
       <c r="H827" s="14"/>
-      <c r="I827" s="25"/>
+      <c r="I827" s="24"/>
     </row>
     <row r="828" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G828" s="20"/>
       <c r="H828" s="14"/>
-      <c r="I828" s="25"/>
+      <c r="I828" s="24"/>
     </row>
     <row r="829" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G829" s="20"/>
       <c r="H829" s="14"/>
-      <c r="I829" s="25"/>
+      <c r="I829" s="24"/>
     </row>
     <row r="830" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G830" s="20"/>
       <c r="H830" s="14"/>
-      <c r="I830" s="25"/>
+      <c r="I830" s="24"/>
     </row>
     <row r="831" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G831" s="20"/>
       <c r="H831" s="14"/>
-      <c r="I831" s="25"/>
+      <c r="I831" s="24"/>
     </row>
     <row r="832" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G832" s="20"/>
       <c r="H832" s="14"/>
-      <c r="I832" s="25"/>
+      <c r="I832" s="24"/>
     </row>
     <row r="833" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G833" s="20"/>
       <c r="H833" s="14"/>
-      <c r="I833" s="25"/>
+      <c r="I833" s="24"/>
     </row>
     <row r="834" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G834" s="20"/>
       <c r="H834" s="14"/>
-      <c r="I834" s="25"/>
+      <c r="I834" s="24"/>
     </row>
     <row r="835" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G835" s="20"/>
       <c r="H835" s="14"/>
-      <c r="I835" s="25"/>
+      <c r="I835" s="24"/>
     </row>
     <row r="836" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G836" s="20"/>
       <c r="H836" s="14"/>
-      <c r="I836" s="25"/>
+      <c r="I836" s="24"/>
     </row>
     <row r="837" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G837" s="20"/>
       <c r="H837" s="14"/>
-      <c r="I837" s="25"/>
+      <c r="I837" s="24"/>
     </row>
     <row r="838" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G838" s="20"/>
       <c r="H838" s="14"/>
-      <c r="I838" s="25"/>
+      <c r="I838" s="24"/>
     </row>
     <row r="839" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G839" s="20"/>
       <c r="H839" s="14"/>
-      <c r="I839" s="25"/>
+      <c r="I839" s="24"/>
     </row>
     <row r="840" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G840" s="20"/>
       <c r="H840" s="14"/>
-      <c r="I840" s="25"/>
+      <c r="I840" s="24"/>
     </row>
     <row r="841" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G841" s="20"/>
       <c r="H841" s="14"/>
-      <c r="I841" s="25"/>
+      <c r="I841" s="24"/>
     </row>
     <row r="842" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G842" s="20"/>
       <c r="H842" s="14"/>
-      <c r="I842" s="25"/>
+      <c r="I842" s="24"/>
     </row>
     <row r="843" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G843" s="20"/>
       <c r="H843" s="14"/>
-      <c r="I843" s="25"/>
+      <c r="I843" s="24"/>
     </row>
     <row r="844" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G844" s="20"/>
       <c r="H844" s="14"/>
-      <c r="I844" s="25"/>
+      <c r="I844" s="24"/>
     </row>
     <row r="845" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G845" s="20"/>
       <c r="H845" s="14"/>
-      <c r="I845" s="25"/>
+      <c r="I845" s="24"/>
     </row>
     <row r="846" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G846" s="20"/>
       <c r="H846" s="14"/>
-      <c r="I846" s="25"/>
+      <c r="I846" s="24"/>
     </row>
     <row r="847" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G847" s="20"/>
       <c r="H847" s="14"/>
-      <c r="I847" s="25"/>
+      <c r="I847" s="24"/>
     </row>
     <row r="848" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G848" s="20"/>
       <c r="H848" s="14"/>
-      <c r="I848" s="25"/>
+      <c r="I848" s="24"/>
     </row>
     <row r="849" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G849" s="20"/>
       <c r="H849" s="14"/>
-      <c r="I849" s="25"/>
+      <c r="I849" s="24"/>
     </row>
     <row r="850" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G850" s="20"/>
       <c r="H850" s="14"/>
-      <c r="I850" s="25"/>
+      <c r="I850" s="24"/>
     </row>
     <row r="851" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G851" s="20"/>
       <c r="H851" s="14"/>
-      <c r="I851" s="25"/>
+      <c r="I851" s="24"/>
     </row>
     <row r="852" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G852" s="20"/>
       <c r="H852" s="14"/>
-      <c r="I852" s="25"/>
+      <c r="I852" s="24"/>
     </row>
     <row r="853" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G853" s="20"/>
       <c r="H853" s="14"/>
-      <c r="I853" s="25"/>
+      <c r="I853" s="24"/>
     </row>
     <row r="854" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G854" s="20"/>
       <c r="H854" s="14"/>
-      <c r="I854" s="25"/>
+      <c r="I854" s="24"/>
     </row>
     <row r="855" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G855" s="20"/>
       <c r="H855" s="14"/>
-      <c r="I855" s="25"/>
+      <c r="I855" s="24"/>
     </row>
     <row r="856" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G856" s="20"/>
       <c r="H856" s="14"/>
-      <c r="I856" s="25"/>
+      <c r="I856" s="24"/>
     </row>
     <row r="857" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G857" s="20"/>
       <c r="H857" s="14"/>
-      <c r="I857" s="25"/>
+      <c r="I857" s="24"/>
     </row>
     <row r="858" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G858" s="20"/>
       <c r="H858" s="14"/>
-      <c r="I858" s="25"/>
+      <c r="I858" s="24"/>
     </row>
     <row r="859" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G859" s="20"/>
       <c r="H859" s="14"/>
-      <c r="I859" s="25"/>
+      <c r="I859" s="24"/>
     </row>
     <row r="860" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G860" s="20"/>
       <c r="H860" s="14"/>
-      <c r="I860" s="25"/>
+      <c r="I860" s="24"/>
     </row>
     <row r="861" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G861" s="20"/>
       <c r="H861" s="14"/>
-      <c r="I861" s="25"/>
+      <c r="I861" s="24"/>
     </row>
     <row r="862" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G862" s="20"/>
       <c r="H862" s="14"/>
-      <c r="I862" s="25"/>
+      <c r="I862" s="24"/>
     </row>
     <row r="863" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G863" s="20"/>
       <c r="H863" s="14"/>
-      <c r="I863" s="25"/>
+      <c r="I863" s="24"/>
     </row>
     <row r="864" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G864" s="20"/>
       <c r="H864" s="14"/>
-      <c r="I864" s="25"/>
+      <c r="I864" s="24"/>
     </row>
     <row r="865" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G865" s="20"/>
       <c r="H865" s="14"/>
-      <c r="I865" s="25"/>
+      <c r="I865" s="24"/>
     </row>
     <row r="866" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G866" s="20"/>
       <c r="H866" s="14"/>
-      <c r="I866" s="25"/>
+      <c r="I866" s="24"/>
     </row>
     <row r="867" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G867" s="20"/>
       <c r="H867" s="14"/>
-      <c r="I867" s="25"/>
+      <c r="I867" s="24"/>
     </row>
     <row r="868" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G868" s="20"/>
       <c r="H868" s="14"/>
-      <c r="I868" s="25"/>
+      <c r="I868" s="24"/>
     </row>
     <row r="869" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G869" s="20"/>
       <c r="H869" s="14"/>
-      <c r="I869" s="25"/>
+      <c r="I869" s="24"/>
     </row>
     <row r="870" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G870" s="20"/>
       <c r="H870" s="14"/>
-      <c r="I870" s="25"/>
+      <c r="I870" s="24"/>
     </row>
     <row r="871" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G871" s="20"/>
       <c r="H871" s="14"/>
-      <c r="I871" s="25"/>
+      <c r="I871" s="24"/>
     </row>
     <row r="872" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G872" s="20"/>
       <c r="H872" s="14"/>
-      <c r="I872" s="25"/>
+      <c r="I872" s="24"/>
     </row>
     <row r="873" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G873" s="20"/>
       <c r="H873" s="14"/>
-      <c r="I873" s="25"/>
+      <c r="I873" s="24"/>
     </row>
     <row r="874" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G874" s="20"/>
       <c r="H874" s="14"/>
-      <c r="I874" s="25"/>
+      <c r="I874" s="24"/>
     </row>
     <row r="875" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G875" s="20"/>
       <c r="H875" s="14"/>
-      <c r="I875" s="25"/>
+      <c r="I875" s="24"/>
     </row>
     <row r="876" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G876" s="20"/>
       <c r="H876" s="14"/>
-      <c r="I876" s="25"/>
+      <c r="I876" s="24"/>
     </row>
     <row r="877" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G877" s="20"/>
       <c r="H877" s="14"/>
-      <c r="I877" s="25"/>
+      <c r="I877" s="24"/>
     </row>
     <row r="878" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G878" s="20"/>
       <c r="H878" s="14"/>
-      <c r="I878" s="25"/>
+      <c r="I878" s="24"/>
     </row>
     <row r="879" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G879" s="20"/>
       <c r="H879" s="14"/>
-      <c r="I879" s="25"/>
+      <c r="I879" s="24"/>
     </row>
     <row r="880" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G880" s="20"/>
       <c r="H880" s="14"/>
-      <c r="I880" s="25"/>
+      <c r="I880" s="24"/>
     </row>
     <row r="881" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G881" s="20"/>
       <c r="H881" s="14"/>
-      <c r="I881" s="25"/>
+      <c r="I881" s="24"/>
     </row>
     <row r="882" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G882" s="20"/>
       <c r="H882" s="14"/>
-      <c r="I882" s="25"/>
+      <c r="I882" s="24"/>
     </row>
     <row r="883" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G883" s="20"/>
       <c r="H883" s="14"/>
-      <c r="I883" s="25"/>
+      <c r="I883" s="24"/>
     </row>
     <row r="884" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G884" s="20"/>
       <c r="H884" s="14"/>
-      <c r="I884" s="25"/>
+      <c r="I884" s="24"/>
     </row>
     <row r="885" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G885" s="20"/>
       <c r="H885" s="14"/>
-      <c r="I885" s="25"/>
+      <c r="I885" s="24"/>
     </row>
     <row r="886" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G886" s="20"/>
       <c r="H886" s="14"/>
-      <c r="I886" s="25"/>
+      <c r="I886" s="24"/>
     </row>
     <row r="887" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G887" s="20"/>
       <c r="H887" s="14"/>
-      <c r="I887" s="25"/>
+      <c r="I887" s="24"/>
     </row>
     <row r="888" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G888" s="20"/>
       <c r="H888" s="14"/>
-      <c r="I888" s="25"/>
+      <c r="I888" s="24"/>
     </row>
     <row r="889" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G889" s="20"/>
       <c r="H889" s="14"/>
-      <c r="I889" s="25"/>
+      <c r="I889" s="24"/>
     </row>
     <row r="890" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G890" s="20"/>
       <c r="H890" s="14"/>
-      <c r="I890" s="25"/>
+      <c r="I890" s="24"/>
     </row>
     <row r="891" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G891" s="20"/>
       <c r="H891" s="14"/>
-      <c r="I891" s="25"/>
+      <c r="I891" s="24"/>
     </row>
     <row r="892" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G892" s="20"/>
       <c r="H892" s="14"/>
-      <c r="I892" s="25"/>
+      <c r="I892" s="24"/>
     </row>
     <row r="893" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G893" s="20"/>
       <c r="H893" s="14"/>
-      <c r="I893" s="25"/>
+      <c r="I893" s="24"/>
     </row>
     <row r="894" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G894" s="20"/>
       <c r="H894" s="14"/>
-      <c r="I894" s="25"/>
+      <c r="I894" s="24"/>
     </row>
     <row r="895" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G895" s="20"/>
       <c r="H895" s="14"/>
-      <c r="I895" s="25"/>
+      <c r="I895" s="24"/>
     </row>
     <row r="896" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G896" s="20"/>
       <c r="H896" s="14"/>
-      <c r="I896" s="25"/>
+      <c r="I896" s="24"/>
     </row>
     <row r="897" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G897" s="20"/>
       <c r="H897" s="14"/>
-      <c r="I897" s="25"/>
+      <c r="I897" s="24"/>
     </row>
     <row r="898" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G898" s="20"/>
       <c r="H898" s="14"/>
-      <c r="I898" s="25"/>
+      <c r="I898" s="24"/>
     </row>
     <row r="899" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G899" s="20"/>
       <c r="H899" s="14"/>
-      <c r="I899" s="25"/>
+      <c r="I899" s="24"/>
     </row>
     <row r="900" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G900" s="20"/>
       <c r="H900" s="14"/>
-      <c r="I900" s="25"/>
+      <c r="I900" s="24"/>
     </row>
     <row r="901" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G901" s="20"/>
       <c r="H901" s="14"/>
-      <c r="I901" s="25"/>
+      <c r="I901" s="24"/>
     </row>
     <row r="902" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G902" s="20"/>
       <c r="H902" s="14"/>
-      <c r="I902" s="25"/>
+      <c r="I902" s="24"/>
     </row>
     <row r="903" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G903" s="20"/>
       <c r="H903" s="14"/>
-      <c r="I903" s="25"/>
+      <c r="I903" s="24"/>
     </row>
     <row r="904" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G904" s="20"/>
       <c r="H904" s="14"/>
-      <c r="I904" s="25"/>
+      <c r="I904" s="24"/>
     </row>
     <row r="905" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G905" s="20"/>
       <c r="H905" s="14"/>
-      <c r="I905" s="25"/>
+      <c r="I905" s="24"/>
     </row>
     <row r="906" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G906" s="20"/>
       <c r="H906" s="14"/>
-      <c r="I906" s="25"/>
+      <c r="I906" s="24"/>
     </row>
     <row r="907" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G907" s="20"/>
       <c r="H907" s="14"/>
-      <c r="I907" s="25"/>
+      <c r="I907" s="24"/>
     </row>
     <row r="908" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G908" s="20"/>
       <c r="H908" s="14"/>
-      <c r="I908" s="25"/>
+      <c r="I908" s="24"/>
     </row>
     <row r="909" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G909" s="20"/>
       <c r="H909" s="14"/>
-      <c r="I909" s="25"/>
+      <c r="I909" s="24"/>
     </row>
     <row r="910" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G910" s="20"/>
       <c r="H910" s="14"/>
-      <c r="I910" s="25"/>
+      <c r="I910" s="24"/>
     </row>
     <row r="911" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G911" s="20"/>
       <c r="H911" s="14"/>
-      <c r="I911" s="25"/>
+      <c r="I911" s="24"/>
     </row>
     <row r="912" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G912" s="20"/>
       <c r="H912" s="14"/>
-      <c r="I912" s="25"/>
+      <c r="I912" s="24"/>
     </row>
     <row r="913" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G913" s="20"/>
       <c r="H913" s="14"/>
-      <c r="I913" s="25"/>
+      <c r="I913" s="24"/>
     </row>
     <row r="914" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G914" s="20"/>
       <c r="H914" s="14"/>
-      <c r="I914" s="25"/>
+      <c r="I914" s="24"/>
     </row>
     <row r="915" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G915" s="20"/>
       <c r="H915" s="14"/>
-      <c r="I915" s="25"/>
+      <c r="I915" s="24"/>
     </row>
     <row r="916" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G916" s="20"/>
       <c r="H916" s="14"/>
-      <c r="I916" s="25"/>
+      <c r="I916" s="24"/>
     </row>
     <row r="917" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G917" s="20"/>
       <c r="H917" s="14"/>
-      <c r="I917" s="25"/>
+      <c r="I917" s="24"/>
     </row>
     <row r="918" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G918" s="20"/>
       <c r="H918" s="14"/>
-      <c r="I918" s="25"/>
+      <c r="I918" s="24"/>
     </row>
     <row r="919" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G919" s="20"/>
       <c r="H919" s="14"/>
-      <c r="I919" s="25"/>
+      <c r="I919" s="24"/>
     </row>
     <row r="920" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G920" s="20"/>
       <c r="H920" s="14"/>
-      <c r="I920" s="25"/>
+      <c r="I920" s="24"/>
     </row>
     <row r="921" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G921" s="20"/>
       <c r="H921" s="14"/>
-      <c r="I921" s="25"/>
+      <c r="I921" s="24"/>
     </row>
     <row r="922" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G922" s="20"/>
       <c r="H922" s="14"/>
-      <c r="I922" s="25"/>
+      <c r="I922" s="24"/>
     </row>
     <row r="923" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G923" s="20"/>
       <c r="H923" s="14"/>
-      <c r="I923" s="25"/>
+      <c r="I923" s="24"/>
     </row>
     <row r="924" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G924" s="20"/>
       <c r="H924" s="14"/>
-      <c r="I924" s="25"/>
+      <c r="I924" s="24"/>
     </row>
     <row r="925" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G925" s="20"/>
       <c r="H925" s="14"/>
-      <c r="I925" s="25"/>
+      <c r="I925" s="24"/>
     </row>
     <row r="926" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G926" s="20"/>
       <c r="H926" s="14"/>
-      <c r="I926" s="25"/>
+      <c r="I926" s="24"/>
     </row>
     <row r="927" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G927" s="20"/>
       <c r="H927" s="14"/>
-      <c r="I927" s="25"/>
+      <c r="I927" s="24"/>
     </row>
     <row r="928" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G928" s="20"/>
       <c r="H928" s="14"/>
-      <c r="I928" s="25"/>
+      <c r="I928" s="24"/>
     </row>
     <row r="929" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G929" s="20"/>
       <c r="H929" s="14"/>
-      <c r="I929" s="25"/>
+      <c r="I929" s="24"/>
     </row>
     <row r="930" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G930" s="20"/>
       <c r="H930" s="14"/>
-      <c r="I930" s="25"/>
+      <c r="I930" s="24"/>
     </row>
     <row r="931" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G931" s="20"/>
       <c r="H931" s="14"/>
-      <c r="I931" s="25"/>
+      <c r="I931" s="24"/>
     </row>
     <row r="932" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G932" s="20"/>
       <c r="H932" s="14"/>
-      <c r="I932" s="25"/>
+      <c r="I932" s="24"/>
     </row>
     <row r="933" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G933" s="20"/>
       <c r="H933" s="14"/>
-      <c r="I933" s="25"/>
+      <c r="I933" s="24"/>
     </row>
     <row r="934" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G934" s="20"/>
       <c r="H934" s="14"/>
-      <c r="I934" s="25"/>
+      <c r="I934" s="24"/>
     </row>
     <row r="935" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G935" s="20"/>
       <c r="H935" s="14"/>
-      <c r="I935" s="25"/>
+      <c r="I935" s="24"/>
     </row>
     <row r="936" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G936" s="20"/>
       <c r="H936" s="14"/>
-      <c r="I936" s="25"/>
+      <c r="I936" s="24"/>
     </row>
     <row r="937" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G937" s="20"/>
       <c r="H937" s="14"/>
-      <c r="I937" s="25"/>
+      <c r="I937" s="24"/>
     </row>
     <row r="938" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G938" s="20"/>
       <c r="H938" s="14"/>
-      <c r="I938" s="25"/>
+      <c r="I938" s="24"/>
     </row>
     <row r="939" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G939" s="20"/>
       <c r="H939" s="14"/>
-      <c r="I939" s="25"/>
+      <c r="I939" s="24"/>
     </row>
     <row r="940" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G940" s="20"/>
       <c r="H940" s="14"/>
-      <c r="I940" s="25"/>
+      <c r="I940" s="24"/>
     </row>
     <row r="941" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G941" s="20"/>
       <c r="H941" s="14"/>
-      <c r="I941" s="25"/>
+      <c r="I941" s="24"/>
     </row>
     <row r="942" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G942" s="20"/>
       <c r="H942" s="14"/>
-      <c r="I942" s="25"/>
+      <c r="I942" s="24"/>
     </row>
     <row r="943" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G943" s="20"/>
       <c r="H943" s="14"/>
-      <c r="I943" s="25"/>
+      <c r="I943" s="24"/>
     </row>
     <row r="944" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G944" s="20"/>
       <c r="H944" s="14"/>
-      <c r="I944" s="25"/>
+      <c r="I944" s="24"/>
     </row>
     <row r="945" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G945" s="20"/>
       <c r="H945" s="14"/>
-      <c r="I945" s="25"/>
+      <c r="I945" s="24"/>
     </row>
     <row r="946" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G946" s="20"/>
       <c r="H946" s="14"/>
-      <c r="I946" s="25"/>
+      <c r="I946" s="24"/>
     </row>
     <row r="947" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G947" s="20"/>
       <c r="H947" s="14"/>
-      <c r="I947" s="25"/>
+      <c r="I947" s="24"/>
     </row>
     <row r="948" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G948" s="20"/>
       <c r="H948" s="14"/>
-      <c r="I948" s="25"/>
+      <c r="I948" s="24"/>
     </row>
     <row r="949" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G949" s="20"/>
       <c r="H949" s="14"/>
-      <c r="I949" s="25"/>
+      <c r="I949" s="24"/>
     </row>
     <row r="950" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G950" s="20"/>
       <c r="H950" s="14"/>
-      <c r="I950" s="25"/>
+      <c r="I950" s="24"/>
     </row>
     <row r="951" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G951" s="20"/>
       <c r="H951" s="14"/>
-      <c r="I951" s="25"/>
+      <c r="I951" s="24"/>
     </row>
     <row r="952" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G952" s="20"/>
       <c r="H952" s="14"/>
-      <c r="I952" s="25"/>
+      <c r="I952" s="24"/>
     </row>
     <row r="953" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G953" s="20"/>
       <c r="H953" s="14"/>
-      <c r="I953" s="25"/>
+      <c r="I953" s="24"/>
     </row>
     <row r="954" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G954" s="20"/>
       <c r="H954" s="14"/>
-      <c r="I954" s="25"/>
+      <c r="I954" s="24"/>
     </row>
     <row r="955" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G955" s="20"/>
       <c r="H955" s="14"/>
-      <c r="I955" s="25"/>
+      <c r="I955" s="24"/>
     </row>
     <row r="956" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G956" s="20"/>
       <c r="H956" s="14"/>
-      <c r="I956" s="25"/>
+      <c r="I956" s="24"/>
     </row>
     <row r="957" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G957" s="20"/>
       <c r="H957" s="14"/>
-      <c r="I957" s="25"/>
+      <c r="I957" s="24"/>
     </row>
     <row r="958" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G958" s="20"/>
       <c r="H958" s="14"/>
-      <c r="I958" s="25"/>
+      <c r="I958" s="24"/>
     </row>
     <row r="959" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G959" s="20"/>
       <c r="H959" s="14"/>
-      <c r="I959" s="25"/>
+      <c r="I959" s="24"/>
     </row>
     <row r="960" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G960" s="20"/>
       <c r="H960" s="14"/>
-      <c r="I960" s="25"/>
+      <c r="I960" s="24"/>
     </row>
     <row r="961" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G961" s="20"/>
       <c r="H961" s="14"/>
-      <c r="I961" s="25"/>
+      <c r="I961" s="24"/>
     </row>
     <row r="962" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G962" s="20"/>
       <c r="H962" s="14"/>
-      <c r="I962" s="25"/>
+      <c r="I962" s="24"/>
     </row>
     <row r="963" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G963" s="20"/>
       <c r="H963" s="14"/>
-      <c r="I963" s="25"/>
+      <c r="I963" s="24"/>
     </row>
     <row r="964" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G964" s="20"/>
       <c r="H964" s="14"/>
-      <c r="I964" s="25"/>
+      <c r="I964" s="24"/>
     </row>
     <row r="965" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G965" s="20"/>
       <c r="H965" s="14"/>
-      <c r="I965" s="25"/>
+      <c r="I965" s="24"/>
     </row>
     <row r="966" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G966" s="20"/>
       <c r="H966" s="14"/>
-      <c r="I966" s="25"/>
+      <c r="I966" s="24"/>
     </row>
     <row r="967" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G967" s="20"/>
       <c r="H967" s="14"/>
-      <c r="I967" s="25"/>
+      <c r="I967" s="24"/>
     </row>
     <row r="968" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G968" s="20"/>
       <c r="H968" s="14"/>
-      <c r="I968" s="25"/>
+      <c r="I968" s="24"/>
     </row>
     <row r="969" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G969" s="20"/>
       <c r="H969" s="14"/>
-      <c r="I969" s="25"/>
+      <c r="I969" s="24"/>
     </row>
     <row r="970" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G970" s="20"/>
       <c r="H970" s="14"/>
-      <c r="I970" s="25"/>
+      <c r="I970" s="24"/>
     </row>
     <row r="971" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G971" s="20"/>
       <c r="H971" s="14"/>
-      <c r="I971" s="25"/>
+      <c r="I971" s="24"/>
     </row>
     <row r="972" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G972" s="20"/>
       <c r="H972" s="14"/>
-      <c r="I972" s="25"/>
+      <c r="I972" s="24"/>
     </row>
     <row r="973" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G973" s="20"/>
       <c r="H973" s="14"/>
-      <c r="I973" s="25"/>
+      <c r="I973" s="24"/>
     </row>
     <row r="974" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G974" s="20"/>
       <c r="H974" s="14"/>
-      <c r="I974" s="25"/>
+      <c r="I974" s="24"/>
     </row>
     <row r="975" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G975" s="20"/>
       <c r="H975" s="14"/>
-      <c r="I975" s="25"/>
+      <c r="I975" s="24"/>
     </row>
     <row r="976" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G976" s="20"/>
       <c r="H976" s="14"/>
-      <c r="I976" s="25"/>
+      <c r="I976" s="24"/>
     </row>
     <row r="977" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G977" s="20"/>
       <c r="H977" s="14"/>
-      <c r="I977" s="25"/>
+      <c r="I977" s="24"/>
     </row>
     <row r="978" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G978" s="20"/>
       <c r="H978" s="14"/>
-      <c r="I978" s="25"/>
+      <c r="I978" s="24"/>
     </row>
     <row r="979" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G979" s="20"/>
       <c r="H979" s="14"/>
-      <c r="I979" s="25"/>
+      <c r="I979" s="24"/>
     </row>
     <row r="980" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G980" s="20"/>
       <c r="H980" s="14"/>
-      <c r="I980" s="25"/>
+      <c r="I980" s="24"/>
     </row>
     <row r="981" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G981" s="20"/>
       <c r="H981" s="14"/>
-      <c r="I981" s="25"/>
+      <c r="I981" s="24"/>
     </row>
     <row r="982" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G982" s="20"/>
       <c r="H982" s="14"/>
-      <c r="I982" s="25"/>
+      <c r="I982" s="24"/>
     </row>
     <row r="983" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G983" s="20"/>
       <c r="H983" s="14"/>
-      <c r="I983" s="25"/>
+      <c r="I983" s="24"/>
     </row>
     <row r="984" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G984" s="20"/>
       <c r="H984" s="14"/>
-      <c r="I984" s="25"/>
+      <c r="I984" s="24"/>
     </row>
     <row r="985" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G985" s="20"/>
       <c r="H985" s="14"/>
-      <c r="I985" s="25"/>
+      <c r="I985" s="24"/>
     </row>
     <row r="986" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G986" s="20"/>
       <c r="H986" s="14"/>
-      <c r="I986" s="25"/>
+      <c r="I986" s="24"/>
     </row>
     <row r="987" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G987" s="20"/>
       <c r="H987" s="14"/>
-      <c r="I987" s="25"/>
+      <c r="I987" s="24"/>
     </row>
     <row r="988" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G988" s="20"/>
       <c r="H988" s="14"/>
-      <c r="I988" s="25"/>
+      <c r="I988" s="24"/>
     </row>
     <row r="989" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G989" s="20"/>
       <c r="H989" s="14"/>
-      <c r="I989" s="25"/>
+      <c r="I989" s="24"/>
     </row>
     <row r="990" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G990" s="20"/>
       <c r="H990" s="14"/>
-      <c r="I990" s="25"/>
+      <c r="I990" s="24"/>
     </row>
     <row r="991" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G991" s="20"/>
       <c r="H991" s="14"/>
-      <c r="I991" s="25"/>
+      <c r="I991" s="24"/>
     </row>
     <row r="992" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G992" s="20"/>
       <c r="H992" s="14"/>
-      <c r="I992" s="25"/>
+      <c r="I992" s="24"/>
     </row>
     <row r="993" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G993" s="20"/>
       <c r="H993" s="14"/>
-      <c r="I993" s="25"/>
+      <c r="I993" s="24"/>
     </row>
     <row r="994" spans="7:9" ht="13" x14ac:dyDescent="0.25">
       <c r="G994" s="20"/>
       <c r="H994" s="14"/>
-      <c r="I994" s="25"/>
+      <c r="I994" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
